--- a/results_dual_agregee.xlsx
+++ b/results_dual_agregee.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathis\Documents\Etudes\4A\Cours-MPRO\PROJ\PROJET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9554DECF-A614-4AEA-935C-F40B1F7FDD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3533E2A-51D6-451F-BCF8-756AC1EC443E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="255">
   <si>
     <t>Instance</t>
   </si>
@@ -806,6 +807,24 @@
   </si>
   <si>
     <t>plans_coupants</t>
+  </si>
+  <si>
+    <t>2400_USA-road-d.COL.gr</t>
+  </si>
+  <si>
+    <t>61, 88, 213, 275, 312, 481, 720, 903, 946, 1327, 1410, 2006, 2034, 2050, 2150, 2170, 2259, 2272</t>
+  </si>
+  <si>
+    <t>2300_USA-road-d.COL.gr</t>
+  </si>
+  <si>
+    <t>88, 181, 238, 536, 701, 775, 904, 946, 955, 1330, 1410, 1669, 1882, 2050, 2216, 2256, 2272, 2299</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
+  </si>
+  <si>
+    <t>Colonne2</t>
   </si>
 </sst>
 </file>
@@ -906,6 +925,43 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -929,43 +985,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -977,6 +996,934 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Colonne2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil2!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil2!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1392685158225077E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9181246047624818E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11394335230683679</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14612803567823801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17609125905568124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20411998265592479</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23044892137827391</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25527250510330607</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27875360095282892</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3010299956639812</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E7F-466C-A943-0A81FDD4CB2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1738782384"/>
+        <c:axId val="1424864064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1738782384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1424864064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1424864064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1738782384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{707CCB49-A4D0-03F5-C661-E4E3711246E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -997,12 +1944,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9FCBF1A1-D84D-4B0E-9E4E-F679610B57B7}" name="Tableau2" displayName="Tableau2" ref="A1:B602" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9FCBF1A1-D84D-4B0E-9E4E-F679610B57B7}" name="Tableau2" displayName="Tableau2" ref="A1:B602" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:B602" xr:uid="{9FCBF1A1-D84D-4B0E-9E4E-F679610B57B7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{635AF980-5AFA-4973-BCC0-BBBF3DAE567B}" name="Temps" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{635AF980-5AFA-4973-BCC0-BBBF3DAE567B}" name="Temps" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{99DBCC33-9C01-4F6E-973C-D67C11364EAE}" name="plans_coupants">
       <calculatedColumnFormula array="1">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{66F08417-8F86-4975-898C-6FC9F77DE155}" name="Tableau3" displayName="Tableau3" ref="F1:G12" totalsRowShown="0">
+  <autoFilter ref="F1:G12" xr:uid="{66F08417-8F86-4975-898C-6FC9F77DE155}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F2803CA7-5670-4A13-902B-B9C6E024E7B2}" name="Colonne1"/>
+    <tableColumn id="2" xr3:uid="{81CF0BD9-F1FF-4196-AD1C-AC50E8D9037D}" name="Colonne2">
+      <calculatedColumnFormula>LOG(F2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1274,13 +2234,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" customWidth="1"/>
@@ -3723,9 +4683,24 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>251</v>
+      </c>
+      <c r="B117">
+        <v>602.28999996185303</v>
+      </c>
+      <c r="C117" t="s">
+        <v>252</v>
+      </c>
+      <c r="D117">
+        <v>50172.479999999996</v>
+      </c>
+      <c r="E117">
+        <v>40881.440160514518</v>
+      </c>
       <c r="F117">
         <f>IF(Tableau1[[#This Row],[Temps]]&lt;=599, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -3771,9 +4746,24 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>249</v>
+      </c>
+      <c r="B120">
+        <v>603.20099997520447</v>
+      </c>
+      <c r="C120" t="s">
+        <v>250</v>
+      </c>
+      <c r="D120">
+        <v>50520.58</v>
+      </c>
+      <c r="E120">
+        <v>40629.674223232003</v>
+      </c>
       <c r="F120">
         <f>IF(Tableau1[[#This Row],[Temps]]&lt;=599, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -3873,8 +4863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB67B4A5-8627-4294-A144-C43A9587C0BA}">
   <dimension ref="A1:B602"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A602" sqref="A1:B602"/>
+    <sheetView topLeftCell="A587" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3896,7 +4886,7 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3905,7 +4895,7 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3914,7 +4904,7 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3923,7 +4913,7 @@
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3932,7 +4922,7 @@
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3941,7 +4931,7 @@
       </c>
       <c r="B7" cm="1">
         <f t="array" ref="B7">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3950,7 +4940,7 @@
       </c>
       <c r="B8" cm="1">
         <f t="array" ref="B8">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -3959,7 +4949,7 @@
       </c>
       <c r="B9" cm="1">
         <f t="array" ref="B9">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -3968,7 +4958,7 @@
       </c>
       <c r="B10" cm="1">
         <f t="array" ref="B10">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3977,7 +4967,7 @@
       </c>
       <c r="B11" cm="1">
         <f t="array" ref="B11">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -3986,7 +4976,7 @@
       </c>
       <c r="B12" cm="1">
         <f t="array" ref="B12">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3995,7 +4985,7 @@
       </c>
       <c r="B13" cm="1">
         <f t="array" ref="B13">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -4004,7 +4994,7 @@
       </c>
       <c r="B14" cm="1">
         <f t="array" ref="B14">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -4013,7 +5003,7 @@
       </c>
       <c r="B15" cm="1">
         <f t="array" ref="B15">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -4022,7 +5012,7 @@
       </c>
       <c r="B16" cm="1">
         <f t="array" ref="B16">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -4031,7 +5021,7 @@
       </c>
       <c r="B17" cm="1">
         <f t="array" ref="B17">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -4040,7 +5030,7 @@
       </c>
       <c r="B18" cm="1">
         <f t="array" ref="B18">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -4049,7 +5039,7 @@
       </c>
       <c r="B19" cm="1">
         <f t="array" ref="B19">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -4058,7 +5048,7 @@
       </c>
       <c r="B20" cm="1">
         <f t="array" ref="B20">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -4067,7 +5057,7 @@
       </c>
       <c r="B21" cm="1">
         <f t="array" ref="B21">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -4076,7 +5066,7 @@
       </c>
       <c r="B22" cm="1">
         <f t="array" ref="B22">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -4085,7 +5075,7 @@
       </c>
       <c r="B23" cm="1">
         <f t="array" ref="B23">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -4094,7 +5084,7 @@
       </c>
       <c r="B24" cm="1">
         <f t="array" ref="B24">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -4103,7 +5093,7 @@
       </c>
       <c r="B25" cm="1">
         <f t="array" ref="B25">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -4112,7 +5102,7 @@
       </c>
       <c r="B26" cm="1">
         <f t="array" ref="B26">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -4121,7 +5111,7 @@
       </c>
       <c r="B27" cm="1">
         <f t="array" ref="B27">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -4130,7 +5120,7 @@
       </c>
       <c r="B28" cm="1">
         <f t="array" ref="B28">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -4139,7 +5129,7 @@
       </c>
       <c r="B29" cm="1">
         <f t="array" ref="B29">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -4148,7 +5138,7 @@
       </c>
       <c r="B30" cm="1">
         <f t="array" ref="B30">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -4157,7 +5147,7 @@
       </c>
       <c r="B31" cm="1">
         <f t="array" ref="B31">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -4166,7 +5156,7 @@
       </c>
       <c r="B32" cm="1">
         <f t="array" ref="B32">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -4175,7 +5165,7 @@
       </c>
       <c r="B33" cm="1">
         <f t="array" ref="B33">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -4184,7 +5174,7 @@
       </c>
       <c r="B34" cm="1">
         <f t="array" ref="B34">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -4193,7 +5183,7 @@
       </c>
       <c r="B35" cm="1">
         <f t="array" ref="B35">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -4202,7 +5192,7 @@
       </c>
       <c r="B36" cm="1">
         <f t="array" ref="B36">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -4211,7 +5201,7 @@
       </c>
       <c r="B37" cm="1">
         <f t="array" ref="B37">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -4220,7 +5210,7 @@
       </c>
       <c r="B38" cm="1">
         <f t="array" ref="B38">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -4229,7 +5219,7 @@
       </c>
       <c r="B39" cm="1">
         <f t="array" ref="B39">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -4238,7 +5228,7 @@
       </c>
       <c r="B40" cm="1">
         <f t="array" ref="B40">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -4247,7 +5237,7 @@
       </c>
       <c r="B41" cm="1">
         <f t="array" ref="B41">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -4256,7 +5246,7 @@
       </c>
       <c r="B42" cm="1">
         <f t="array" ref="B42">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -4265,7 +5255,7 @@
       </c>
       <c r="B43" cm="1">
         <f t="array" ref="B43">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -4274,7 +5264,7 @@
       </c>
       <c r="B44" cm="1">
         <f t="array" ref="B44">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -4283,7 +5273,7 @@
       </c>
       <c r="B45" cm="1">
         <f t="array" ref="B45">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -4292,7 +5282,7 @@
       </c>
       <c r="B46" cm="1">
         <f t="array" ref="B46">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -4301,7 +5291,7 @@
       </c>
       <c r="B47" cm="1">
         <f t="array" ref="B47">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -4310,7 +5300,7 @@
       </c>
       <c r="B48" cm="1">
         <f t="array" ref="B48">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -4319,7 +5309,7 @@
       </c>
       <c r="B49" cm="1">
         <f t="array" ref="B49">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -4328,7 +5318,7 @@
       </c>
       <c r="B50" cm="1">
         <f t="array" ref="B50">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -4337,7 +5327,7 @@
       </c>
       <c r="B51" cm="1">
         <f t="array" ref="B51">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -4346,7 +5336,7 @@
       </c>
       <c r="B52" cm="1">
         <f t="array" ref="B52">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -4355,7 +5345,7 @@
       </c>
       <c r="B53" cm="1">
         <f t="array" ref="B53">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -4364,7 +5354,7 @@
       </c>
       <c r="B54" cm="1">
         <f t="array" ref="B54">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -4373,7 +5363,7 @@
       </c>
       <c r="B55" cm="1">
         <f t="array" ref="B55">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -4382,7 +5372,7 @@
       </c>
       <c r="B56" cm="1">
         <f t="array" ref="B56">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -4391,7 +5381,7 @@
       </c>
       <c r="B57" cm="1">
         <f t="array" ref="B57">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -4400,7 +5390,7 @@
       </c>
       <c r="B58" cm="1">
         <f t="array" ref="B58">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -4409,7 +5399,7 @@
       </c>
       <c r="B59" cm="1">
         <f t="array" ref="B59">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -4418,7 +5408,7 @@
       </c>
       <c r="B60" cm="1">
         <f t="array" ref="B60">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -4427,7 +5417,7 @@
       </c>
       <c r="B61" cm="1">
         <f t="array" ref="B61">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -4436,7 +5426,7 @@
       </c>
       <c r="B62" cm="1">
         <f t="array" ref="B62">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -4445,7 +5435,7 @@
       </c>
       <c r="B63" cm="1">
         <f t="array" ref="B63">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -4454,7 +5444,7 @@
       </c>
       <c r="B64" cm="1">
         <f t="array" ref="B64">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -4463,7 +5453,7 @@
       </c>
       <c r="B65" cm="1">
         <f t="array" ref="B65">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -4472,7 +5462,7 @@
       </c>
       <c r="B66" cm="1">
         <f t="array" ref="B66">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -4481,7 +5471,7 @@
       </c>
       <c r="B67" cm="1">
         <f t="array" ref="B67">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -4490,7 +5480,7 @@
       </c>
       <c r="B68" cm="1">
         <f t="array" ref="B68">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -4499,7 +5489,7 @@
       </c>
       <c r="B69" cm="1">
         <f t="array" ref="B69">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -4508,7 +5498,7 @@
       </c>
       <c r="B70" cm="1">
         <f t="array" ref="B70">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -4517,7 +5507,7 @@
       </c>
       <c r="B71" cm="1">
         <f t="array" ref="B71">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -4526,7 +5516,7 @@
       </c>
       <c r="B72" cm="1">
         <f t="array" ref="B72">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -4535,7 +5525,7 @@
       </c>
       <c r="B73" cm="1">
         <f t="array" ref="B73">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -4544,7 +5534,7 @@
       </c>
       <c r="B74" cm="1">
         <f t="array" ref="B74">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -4553,7 +5543,7 @@
       </c>
       <c r="B75" cm="1">
         <f t="array" ref="B75">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -4562,7 +5552,7 @@
       </c>
       <c r="B76" cm="1">
         <f t="array" ref="B76">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -4571,7 +5561,7 @@
       </c>
       <c r="B77" cm="1">
         <f t="array" ref="B77">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -4580,7 +5570,7 @@
       </c>
       <c r="B78" cm="1">
         <f t="array" ref="B78">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -4589,7 +5579,7 @@
       </c>
       <c r="B79" cm="1">
         <f t="array" ref="B79">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -4598,7 +5588,7 @@
       </c>
       <c r="B80" cm="1">
         <f t="array" ref="B80">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -4607,7 +5597,7 @@
       </c>
       <c r="B81" cm="1">
         <f t="array" ref="B81">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -4616,7 +5606,7 @@
       </c>
       <c r="B82" cm="1">
         <f t="array" ref="B82">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -4625,7 +5615,7 @@
       </c>
       <c r="B83" cm="1">
         <f t="array" ref="B83">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -4634,7 +5624,7 @@
       </c>
       <c r="B84" cm="1">
         <f t="array" ref="B84">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -4643,7 +5633,7 @@
       </c>
       <c r="B85" cm="1">
         <f t="array" ref="B85">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -4652,7 +5642,7 @@
       </c>
       <c r="B86" cm="1">
         <f t="array" ref="B86">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -4661,7 +5651,7 @@
       </c>
       <c r="B87" cm="1">
         <f t="array" ref="B87">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -4670,7 +5660,7 @@
       </c>
       <c r="B88" cm="1">
         <f t="array" ref="B88">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -4679,7 +5669,7 @@
       </c>
       <c r="B89" cm="1">
         <f t="array" ref="B89">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -4688,7 +5678,7 @@
       </c>
       <c r="B90" cm="1">
         <f t="array" ref="B90">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -4697,7 +5687,7 @@
       </c>
       <c r="B91" cm="1">
         <f t="array" ref="B91">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -4706,7 +5696,7 @@
       </c>
       <c r="B92" cm="1">
         <f t="array" ref="B92">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -4715,7 +5705,7 @@
       </c>
       <c r="B93" cm="1">
         <f t="array" ref="B93">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -4724,7 +5714,7 @@
       </c>
       <c r="B94" cm="1">
         <f t="array" ref="B94">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -4733,7 +5723,7 @@
       </c>
       <c r="B95" cm="1">
         <f t="array" ref="B95">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -4742,7 +5732,7 @@
       </c>
       <c r="B96" cm="1">
         <f t="array" ref="B96">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -4751,7 +5741,7 @@
       </c>
       <c r="B97" cm="1">
         <f t="array" ref="B97">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -4760,7 +5750,7 @@
       </c>
       <c r="B98" cm="1">
         <f t="array" ref="B98">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -4769,7 +5759,7 @@
       </c>
       <c r="B99" cm="1">
         <f t="array" ref="B99">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -4778,7 +5768,7 @@
       </c>
       <c r="B100" cm="1">
         <f t="array" ref="B100">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -4787,7 +5777,7 @@
       </c>
       <c r="B101" cm="1">
         <f t="array" ref="B101">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -4796,7 +5786,7 @@
       </c>
       <c r="B102" cm="1">
         <f t="array" ref="B102">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -4805,7 +5795,7 @@
       </c>
       <c r="B103" cm="1">
         <f t="array" ref="B103">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -4814,7 +5804,7 @@
       </c>
       <c r="B104" cm="1">
         <f t="array" ref="B104">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -4823,7 +5813,7 @@
       </c>
       <c r="B105" cm="1">
         <f t="array" ref="B105">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -4832,7 +5822,7 @@
       </c>
       <c r="B106" cm="1">
         <f t="array" ref="B106">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -4841,7 +5831,7 @@
       </c>
       <c r="B107" cm="1">
         <f t="array" ref="B107">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -4850,7 +5840,7 @@
       </c>
       <c r="B108" cm="1">
         <f t="array" ref="B108">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -4859,7 +5849,7 @@
       </c>
       <c r="B109" cm="1">
         <f t="array" ref="B109">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -4868,7 +5858,7 @@
       </c>
       <c r="B110" cm="1">
         <f t="array" ref="B110">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -4877,7 +5867,7 @@
       </c>
       <c r="B111" cm="1">
         <f t="array" ref="B111">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -4886,7 +5876,7 @@
       </c>
       <c r="B112" cm="1">
         <f t="array" ref="B112">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -4895,7 +5885,7 @@
       </c>
       <c r="B113" cm="1">
         <f t="array" ref="B113">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -4904,7 +5894,7 @@
       </c>
       <c r="B114" cm="1">
         <f t="array" ref="B114">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -4913,7 +5903,7 @@
       </c>
       <c r="B115" cm="1">
         <f t="array" ref="B115">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -4922,7 +5912,7 @@
       </c>
       <c r="B116" cm="1">
         <f t="array" ref="B116">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -4931,7 +5921,7 @@
       </c>
       <c r="B117" cm="1">
         <f t="array" ref="B117">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -4940,7 +5930,7 @@
       </c>
       <c r="B118" cm="1">
         <f t="array" ref="B118">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -4949,7 +5939,7 @@
       </c>
       <c r="B119" cm="1">
         <f t="array" ref="B119">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -4958,7 +5948,7 @@
       </c>
       <c r="B120" cm="1">
         <f t="array" ref="B120">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -4967,7 +5957,7 @@
       </c>
       <c r="B121" cm="1">
         <f t="array" ref="B121">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -4976,7 +5966,7 @@
       </c>
       <c r="B122" cm="1">
         <f t="array" ref="B122">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -4985,7 +5975,7 @@
       </c>
       <c r="B123" cm="1">
         <f t="array" ref="B123">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -4994,7 +5984,7 @@
       </c>
       <c r="B124" cm="1">
         <f t="array" ref="B124">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -5003,7 +5993,7 @@
       </c>
       <c r="B125" cm="1">
         <f t="array" ref="B125">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -5012,7 +6002,7 @@
       </c>
       <c r="B126" cm="1">
         <f t="array" ref="B126">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -5021,7 +6011,7 @@
       </c>
       <c r="B127" cm="1">
         <f t="array" ref="B127">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -5030,7 +6020,7 @@
       </c>
       <c r="B128" cm="1">
         <f t="array" ref="B128">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -5039,7 +6029,7 @@
       </c>
       <c r="B129" cm="1">
         <f t="array" ref="B129">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -5048,7 +6038,7 @@
       </c>
       <c r="B130" cm="1">
         <f t="array" ref="B130">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -5057,7 +6047,7 @@
       </c>
       <c r="B131" cm="1">
         <f t="array" ref="B131">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -5066,7 +6056,7 @@
       </c>
       <c r="B132" cm="1">
         <f t="array" ref="B132">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -5075,7 +6065,7 @@
       </c>
       <c r="B133" cm="1">
         <f t="array" ref="B133">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -5084,7 +6074,7 @@
       </c>
       <c r="B134" cm="1">
         <f t="array" ref="B134">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -5093,7 +6083,7 @@
       </c>
       <c r="B135" cm="1">
         <f t="array" ref="B135">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -5102,7 +6092,7 @@
       </c>
       <c r="B136" cm="1">
         <f t="array" ref="B136">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -5111,7 +6101,7 @@
       </c>
       <c r="B137" cm="1">
         <f t="array" ref="B137">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -5120,7 +6110,7 @@
       </c>
       <c r="B138" cm="1">
         <f t="array" ref="B138">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -5129,7 +6119,7 @@
       </c>
       <c r="B139" cm="1">
         <f t="array" ref="B139">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -5138,7 +6128,7 @@
       </c>
       <c r="B140" cm="1">
         <f t="array" ref="B140">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -5147,7 +6137,7 @@
       </c>
       <c r="B141" cm="1">
         <f t="array" ref="B141">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -5156,7 +6146,7 @@
       </c>
       <c r="B142" cm="1">
         <f t="array" ref="B142">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -5165,7 +6155,7 @@
       </c>
       <c r="B143" cm="1">
         <f t="array" ref="B143">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -5174,7 +6164,7 @@
       </c>
       <c r="B144" cm="1">
         <f t="array" ref="B144">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -5183,7 +6173,7 @@
       </c>
       <c r="B145" cm="1">
         <f t="array" ref="B145">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -5192,7 +6182,7 @@
       </c>
       <c r="B146" cm="1">
         <f t="array" ref="B146">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -5201,7 +6191,7 @@
       </c>
       <c r="B147" cm="1">
         <f t="array" ref="B147">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -5210,7 +6200,7 @@
       </c>
       <c r="B148" cm="1">
         <f t="array" ref="B148">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -5219,7 +6209,7 @@
       </c>
       <c r="B149" cm="1">
         <f t="array" ref="B149">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -5228,7 +6218,7 @@
       </c>
       <c r="B150" cm="1">
         <f t="array" ref="B150">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -5237,7 +6227,7 @@
       </c>
       <c r="B151" cm="1">
         <f t="array" ref="B151">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -5246,7 +6236,7 @@
       </c>
       <c r="B152" cm="1">
         <f t="array" ref="B152">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -5255,7 +6245,7 @@
       </c>
       <c r="B153" cm="1">
         <f t="array" ref="B153">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -5264,7 +6254,7 @@
       </c>
       <c r="B154" cm="1">
         <f t="array" ref="B154">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -5273,7 +6263,7 @@
       </c>
       <c r="B155" cm="1">
         <f t="array" ref="B155">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -5282,7 +6272,7 @@
       </c>
       <c r="B156" cm="1">
         <f t="array" ref="B156">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -5291,7 +6281,7 @@
       </c>
       <c r="B157" cm="1">
         <f t="array" ref="B157">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -5300,7 +6290,7 @@
       </c>
       <c r="B158" cm="1">
         <f t="array" ref="B158">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -5309,7 +6299,7 @@
       </c>
       <c r="B159" cm="1">
         <f t="array" ref="B159">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -5318,7 +6308,7 @@
       </c>
       <c r="B160" cm="1">
         <f t="array" ref="B160">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -5327,7 +6317,7 @@
       </c>
       <c r="B161" cm="1">
         <f t="array" ref="B161">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -5336,7 +6326,7 @@
       </c>
       <c r="B162" cm="1">
         <f t="array" ref="B162">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -5345,7 +6335,7 @@
       </c>
       <c r="B163" cm="1">
         <f t="array" ref="B163">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -5354,7 +6344,7 @@
       </c>
       <c r="B164" cm="1">
         <f t="array" ref="B164">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -5363,7 +6353,7 @@
       </c>
       <c r="B165" cm="1">
         <f t="array" ref="B165">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -5372,7 +6362,7 @@
       </c>
       <c r="B166" cm="1">
         <f t="array" ref="B166">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -5381,7 +6371,7 @@
       </c>
       <c r="B167" cm="1">
         <f t="array" ref="B167">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -5390,7 +6380,7 @@
       </c>
       <c r="B168" cm="1">
         <f t="array" ref="B168">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -5399,7 +6389,7 @@
       </c>
       <c r="B169" cm="1">
         <f t="array" ref="B169">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -5408,7 +6398,7 @@
       </c>
       <c r="B170" cm="1">
         <f t="array" ref="B170">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -5417,7 +6407,7 @@
       </c>
       <c r="B171" cm="1">
         <f t="array" ref="B171">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -5426,7 +6416,7 @@
       </c>
       <c r="B172" cm="1">
         <f t="array" ref="B172">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -5435,7 +6425,7 @@
       </c>
       <c r="B173" cm="1">
         <f t="array" ref="B173">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -5444,7 +6434,7 @@
       </c>
       <c r="B174" cm="1">
         <f t="array" ref="B174">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -5453,7 +6443,7 @@
       </c>
       <c r="B175" cm="1">
         <f t="array" ref="B175">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -5462,7 +6452,7 @@
       </c>
       <c r="B176" cm="1">
         <f t="array" ref="B176">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -5471,7 +6461,7 @@
       </c>
       <c r="B177" cm="1">
         <f t="array" ref="B177">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -5480,7 +6470,7 @@
       </c>
       <c r="B178" cm="1">
         <f t="array" ref="B178">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -5489,7 +6479,7 @@
       </c>
       <c r="B179" cm="1">
         <f t="array" ref="B179">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -5498,7 +6488,7 @@
       </c>
       <c r="B180" cm="1">
         <f t="array" ref="B180">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -5507,7 +6497,7 @@
       </c>
       <c r="B181" cm="1">
         <f t="array" ref="B181">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -5516,7 +6506,7 @@
       </c>
       <c r="B182" cm="1">
         <f t="array" ref="B182">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -5525,7 +6515,7 @@
       </c>
       <c r="B183" cm="1">
         <f t="array" ref="B183">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -5534,7 +6524,7 @@
       </c>
       <c r="B184" cm="1">
         <f t="array" ref="B184">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -5543,7 +6533,7 @@
       </c>
       <c r="B185" cm="1">
         <f t="array" ref="B185">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -5552,7 +6542,7 @@
       </c>
       <c r="B186" cm="1">
         <f t="array" ref="B186">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -5561,7 +6551,7 @@
       </c>
       <c r="B187" cm="1">
         <f t="array" ref="B187">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -5570,7 +6560,7 @@
       </c>
       <c r="B188" cm="1">
         <f t="array" ref="B188">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -5579,7 +6569,7 @@
       </c>
       <c r="B189" cm="1">
         <f t="array" ref="B189">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -5588,7 +6578,7 @@
       </c>
       <c r="B190" cm="1">
         <f t="array" ref="B190">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -5597,7 +6587,7 @@
       </c>
       <c r="B191" cm="1">
         <f t="array" ref="B191">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -5606,7 +6596,7 @@
       </c>
       <c r="B192" cm="1">
         <f t="array" ref="B192">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -5615,7 +6605,7 @@
       </c>
       <c r="B193" cm="1">
         <f t="array" ref="B193">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -5624,7 +6614,7 @@
       </c>
       <c r="B194" cm="1">
         <f t="array" ref="B194">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -5633,7 +6623,7 @@
       </c>
       <c r="B195" cm="1">
         <f t="array" ref="B195">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -5642,7 +6632,7 @@
       </c>
       <c r="B196" cm="1">
         <f t="array" ref="B196">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -5651,7 +6641,7 @@
       </c>
       <c r="B197" cm="1">
         <f t="array" ref="B197">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -5660,7 +6650,7 @@
       </c>
       <c r="B198" cm="1">
         <f t="array" ref="B198">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -5669,7 +6659,7 @@
       </c>
       <c r="B199" cm="1">
         <f t="array" ref="B199">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -5678,7 +6668,7 @@
       </c>
       <c r="B200" cm="1">
         <f t="array" ref="B200">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -5687,7 +6677,7 @@
       </c>
       <c r="B201" cm="1">
         <f t="array" ref="B201">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -5696,7 +6686,7 @@
       </c>
       <c r="B202" cm="1">
         <f t="array" ref="B202">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -5705,7 +6695,7 @@
       </c>
       <c r="B203" cm="1">
         <f t="array" ref="B203">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -5714,7 +6704,7 @@
       </c>
       <c r="B204" cm="1">
         <f t="array" ref="B204">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -5723,7 +6713,7 @@
       </c>
       <c r="B205" cm="1">
         <f t="array" ref="B205">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -5732,7 +6722,7 @@
       </c>
       <c r="B206" cm="1">
         <f t="array" ref="B206">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -5741,7 +6731,7 @@
       </c>
       <c r="B207" cm="1">
         <f t="array" ref="B207">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -5750,7 +6740,7 @@
       </c>
       <c r="B208" cm="1">
         <f t="array" ref="B208">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -5759,7 +6749,7 @@
       </c>
       <c r="B209" cm="1">
         <f t="array" ref="B209">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -5768,7 +6758,7 @@
       </c>
       <c r="B210" cm="1">
         <f t="array" ref="B210">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -5777,7 +6767,7 @@
       </c>
       <c r="B211" cm="1">
         <f t="array" ref="B211">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -5786,7 +6776,7 @@
       </c>
       <c r="B212" cm="1">
         <f t="array" ref="B212">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -5795,7 +6785,7 @@
       </c>
       <c r="B213" cm="1">
         <f t="array" ref="B213">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -5804,7 +6794,7 @@
       </c>
       <c r="B214" cm="1">
         <f t="array" ref="B214">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -5813,7 +6803,7 @@
       </c>
       <c r="B215" cm="1">
         <f t="array" ref="B215">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -5822,7 +6812,7 @@
       </c>
       <c r="B216" cm="1">
         <f t="array" ref="B216">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -5831,7 +6821,7 @@
       </c>
       <c r="B217" cm="1">
         <f t="array" ref="B217">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -5840,7 +6830,7 @@
       </c>
       <c r="B218" cm="1">
         <f t="array" ref="B218">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -5849,7 +6839,7 @@
       </c>
       <c r="B219" cm="1">
         <f t="array" ref="B219">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -5858,7 +6848,7 @@
       </c>
       <c r="B220" cm="1">
         <f t="array" ref="B220">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -5867,7 +6857,7 @@
       </c>
       <c r="B221" cm="1">
         <f t="array" ref="B221">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -5876,7 +6866,7 @@
       </c>
       <c r="B222" cm="1">
         <f t="array" ref="B222">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -5885,7 +6875,7 @@
       </c>
       <c r="B223" cm="1">
         <f t="array" ref="B223">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -5894,7 +6884,7 @@
       </c>
       <c r="B224" cm="1">
         <f t="array" ref="B224">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -5903,7 +6893,7 @@
       </c>
       <c r="B225" cm="1">
         <f t="array" ref="B225">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -5912,7 +6902,7 @@
       </c>
       <c r="B226" cm="1">
         <f t="array" ref="B226">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -5921,7 +6911,7 @@
       </c>
       <c r="B227" cm="1">
         <f t="array" ref="B227">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -5930,7 +6920,7 @@
       </c>
       <c r="B228" cm="1">
         <f t="array" ref="B228">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -5939,7 +6929,7 @@
       </c>
       <c r="B229" cm="1">
         <f t="array" ref="B229">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -5948,7 +6938,7 @@
       </c>
       <c r="B230" cm="1">
         <f t="array" ref="B230">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -5957,7 +6947,7 @@
       </c>
       <c r="B231" cm="1">
         <f t="array" ref="B231">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -5966,7 +6956,7 @@
       </c>
       <c r="B232" cm="1">
         <f t="array" ref="B232">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -5975,7 +6965,7 @@
       </c>
       <c r="B233" cm="1">
         <f t="array" ref="B233">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -5984,7 +6974,7 @@
       </c>
       <c r="B234" cm="1">
         <f t="array" ref="B234">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -5993,7 +6983,7 @@
       </c>
       <c r="B235" cm="1">
         <f t="array" ref="B235">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -6002,7 +6992,7 @@
       </c>
       <c r="B236" cm="1">
         <f t="array" ref="B236">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -6011,7 +7001,7 @@
       </c>
       <c r="B237" cm="1">
         <f t="array" ref="B237">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -6020,7 +7010,7 @@
       </c>
       <c r="B238" cm="1">
         <f t="array" ref="B238">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -6029,7 +7019,7 @@
       </c>
       <c r="B239" cm="1">
         <f t="array" ref="B239">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -6038,7 +7028,7 @@
       </c>
       <c r="B240" cm="1">
         <f t="array" ref="B240">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -6047,7 +7037,7 @@
       </c>
       <c r="B241" cm="1">
         <f t="array" ref="B241">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -6056,7 +7046,7 @@
       </c>
       <c r="B242" cm="1">
         <f t="array" ref="B242">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -6065,7 +7055,7 @@
       </c>
       <c r="B243" cm="1">
         <f t="array" ref="B243">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -6074,7 +7064,7 @@
       </c>
       <c r="B244" cm="1">
         <f t="array" ref="B244">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -6083,7 +7073,7 @@
       </c>
       <c r="B245" cm="1">
         <f t="array" ref="B245">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -6092,7 +7082,7 @@
       </c>
       <c r="B246" cm="1">
         <f t="array" ref="B246">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -6101,7 +7091,7 @@
       </c>
       <c r="B247" cm="1">
         <f t="array" ref="B247">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -6110,7 +7100,7 @@
       </c>
       <c r="B248" cm="1">
         <f t="array" ref="B248">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -6119,7 +7109,7 @@
       </c>
       <c r="B249" cm="1">
         <f t="array" ref="B249">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -6128,7 +7118,7 @@
       </c>
       <c r="B250" cm="1">
         <f t="array" ref="B250">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -6137,7 +7127,7 @@
       </c>
       <c r="B251" cm="1">
         <f t="array" ref="B251">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -6146,7 +7136,7 @@
       </c>
       <c r="B252" cm="1">
         <f t="array" ref="B252">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -6155,7 +7145,7 @@
       </c>
       <c r="B253" cm="1">
         <f t="array" ref="B253">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -6164,7 +7154,7 @@
       </c>
       <c r="B254" cm="1">
         <f t="array" ref="B254">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -6173,7 +7163,7 @@
       </c>
       <c r="B255" cm="1">
         <f t="array" ref="B255">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -6182,7 +7172,7 @@
       </c>
       <c r="B256" cm="1">
         <f t="array" ref="B256">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -6191,7 +7181,7 @@
       </c>
       <c r="B257" cm="1">
         <f t="array" ref="B257">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -6200,7 +7190,7 @@
       </c>
       <c r="B258" cm="1">
         <f t="array" ref="B258">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -6209,7 +7199,7 @@
       </c>
       <c r="B259" cm="1">
         <f t="array" ref="B259">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -6218,7 +7208,7 @@
       </c>
       <c r="B260" cm="1">
         <f t="array" ref="B260">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -6227,7 +7217,7 @@
       </c>
       <c r="B261" cm="1">
         <f t="array" ref="B261">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -6236,7 +7226,7 @@
       </c>
       <c r="B262" cm="1">
         <f t="array" ref="B262">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -6245,7 +7235,7 @@
       </c>
       <c r="B263" cm="1">
         <f t="array" ref="B263">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -6254,7 +7244,7 @@
       </c>
       <c r="B264" cm="1">
         <f t="array" ref="B264">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -6263,7 +7253,7 @@
       </c>
       <c r="B265" cm="1">
         <f t="array" ref="B265">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -6272,7 +7262,7 @@
       </c>
       <c r="B266" cm="1">
         <f t="array" ref="B266">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -6281,7 +7271,7 @@
       </c>
       <c r="B267" cm="1">
         <f t="array" ref="B267">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -6290,7 +7280,7 @@
       </c>
       <c r="B268" cm="1">
         <f t="array" ref="B268">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -6299,7 +7289,7 @@
       </c>
       <c r="B269" cm="1">
         <f t="array" ref="B269">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -6308,7 +7298,7 @@
       </c>
       <c r="B270" cm="1">
         <f t="array" ref="B270">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -6317,7 +7307,7 @@
       </c>
       <c r="B271" cm="1">
         <f t="array" ref="B271">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -6326,7 +7316,7 @@
       </c>
       <c r="B272" cm="1">
         <f t="array" ref="B272">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -6335,7 +7325,7 @@
       </c>
       <c r="B273" cm="1">
         <f t="array" ref="B273">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -6344,7 +7334,7 @@
       </c>
       <c r="B274" cm="1">
         <f t="array" ref="B274">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -6353,7 +7343,7 @@
       </c>
       <c r="B275" cm="1">
         <f t="array" ref="B275">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -6362,7 +7352,7 @@
       </c>
       <c r="B276" cm="1">
         <f t="array" ref="B276">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -6371,7 +7361,7 @@
       </c>
       <c r="B277" cm="1">
         <f t="array" ref="B277">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -6380,7 +7370,7 @@
       </c>
       <c r="B278" cm="1">
         <f t="array" ref="B278">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -6389,7 +7379,7 @@
       </c>
       <c r="B279" cm="1">
         <f t="array" ref="B279">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -6398,7 +7388,7 @@
       </c>
       <c r="B280" cm="1">
         <f t="array" ref="B280">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -6407,7 +7397,7 @@
       </c>
       <c r="B281" cm="1">
         <f t="array" ref="B281">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -6416,7 +7406,7 @@
       </c>
       <c r="B282" cm="1">
         <f t="array" ref="B282">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -6425,7 +7415,7 @@
       </c>
       <c r="B283" cm="1">
         <f t="array" ref="B283">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -6434,7 +7424,7 @@
       </c>
       <c r="B284" cm="1">
         <f t="array" ref="B284">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -6443,7 +7433,7 @@
       </c>
       <c r="B285" cm="1">
         <f t="array" ref="B285">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -6452,7 +7442,7 @@
       </c>
       <c r="B286" cm="1">
         <f t="array" ref="B286">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -6461,7 +7451,7 @@
       </c>
       <c r="B287" cm="1">
         <f t="array" ref="B287">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -6470,7 +7460,7 @@
       </c>
       <c r="B288" cm="1">
         <f t="array" ref="B288">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -6479,7 +7469,7 @@
       </c>
       <c r="B289" cm="1">
         <f t="array" ref="B289">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -6488,7 +7478,7 @@
       </c>
       <c r="B290" cm="1">
         <f t="array" ref="B290">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -6497,7 +7487,7 @@
       </c>
       <c r="B291" cm="1">
         <f t="array" ref="B291">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -6506,7 +7496,7 @@
       </c>
       <c r="B292" cm="1">
         <f t="array" ref="B292">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -6515,7 +7505,7 @@
       </c>
       <c r="B293" cm="1">
         <f t="array" ref="B293">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -6524,7 +7514,7 @@
       </c>
       <c r="B294" cm="1">
         <f t="array" ref="B294">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
@@ -6533,7 +7523,7 @@
       </c>
       <c r="B295" cm="1">
         <f t="array" ref="B295">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -6542,7 +7532,7 @@
       </c>
       <c r="B296" cm="1">
         <f t="array" ref="B296">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -6551,7 +7541,7 @@
       </c>
       <c r="B297" cm="1">
         <f t="array" ref="B297">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -6560,7 +7550,7 @@
       </c>
       <c r="B298" cm="1">
         <f t="array" ref="B298">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -6569,7 +7559,7 @@
       </c>
       <c r="B299" cm="1">
         <f t="array" ref="B299">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -6578,7 +7568,7 @@
       </c>
       <c r="B300" cm="1">
         <f t="array" ref="B300">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -6587,7 +7577,7 @@
       </c>
       <c r="B301" cm="1">
         <f t="array" ref="B301">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
@@ -6596,7 +7586,7 @@
       </c>
       <c r="B302" cm="1">
         <f t="array" ref="B302">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -6605,7 +7595,7 @@
       </c>
       <c r="B303" cm="1">
         <f t="array" ref="B303">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -6614,7 +7604,7 @@
       </c>
       <c r="B304" cm="1">
         <f t="array" ref="B304">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -6623,7 +7613,7 @@
       </c>
       <c r="B305" cm="1">
         <f t="array" ref="B305">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -6632,7 +7622,7 @@
       </c>
       <c r="B306" cm="1">
         <f t="array" ref="B306">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
@@ -6641,7 +7631,7 @@
       </c>
       <c r="B307" cm="1">
         <f t="array" ref="B307">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
@@ -6650,7 +7640,7 @@
       </c>
       <c r="B308" cm="1">
         <f t="array" ref="B308">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
@@ -6659,7 +7649,7 @@
       </c>
       <c r="B309" cm="1">
         <f t="array" ref="B309">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
@@ -6668,7 +7658,7 @@
       </c>
       <c r="B310" cm="1">
         <f t="array" ref="B310">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -6677,7 +7667,7 @@
       </c>
       <c r="B311" cm="1">
         <f t="array" ref="B311">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -6686,7 +7676,7 @@
       </c>
       <c r="B312" cm="1">
         <f t="array" ref="B312">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -6695,7 +7685,7 @@
       </c>
       <c r="B313" cm="1">
         <f t="array" ref="B313">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -6704,7 +7694,7 @@
       </c>
       <c r="B314" cm="1">
         <f t="array" ref="B314">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -6713,7 +7703,7 @@
       </c>
       <c r="B315" cm="1">
         <f t="array" ref="B315">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -6722,7 +7712,7 @@
       </c>
       <c r="B316" cm="1">
         <f t="array" ref="B316">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -6731,7 +7721,7 @@
       </c>
       <c r="B317" cm="1">
         <f t="array" ref="B317">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -6740,7 +7730,7 @@
       </c>
       <c r="B318" cm="1">
         <f t="array" ref="B318">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -6749,7 +7739,7 @@
       </c>
       <c r="B319" cm="1">
         <f t="array" ref="B319">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -6758,7 +7748,7 @@
       </c>
       <c r="B320" cm="1">
         <f t="array" ref="B320">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -6767,7 +7757,7 @@
       </c>
       <c r="B321" cm="1">
         <f t="array" ref="B321">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
@@ -6776,7 +7766,7 @@
       </c>
       <c r="B322" cm="1">
         <f t="array" ref="B322">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
@@ -6785,7 +7775,7 @@
       </c>
       <c r="B323" cm="1">
         <f t="array" ref="B323">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
@@ -6794,7 +7784,7 @@
       </c>
       <c r="B324" cm="1">
         <f t="array" ref="B324">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
@@ -6803,7 +7793,7 @@
       </c>
       <c r="B325" cm="1">
         <f t="array" ref="B325">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
@@ -6812,7 +7802,7 @@
       </c>
       <c r="B326" cm="1">
         <f t="array" ref="B326">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
@@ -6821,7 +7811,7 @@
       </c>
       <c r="B327" cm="1">
         <f t="array" ref="B327">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -6830,7 +7820,7 @@
       </c>
       <c r="B328" cm="1">
         <f t="array" ref="B328">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -6839,7 +7829,7 @@
       </c>
       <c r="B329" cm="1">
         <f t="array" ref="B329">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
@@ -6848,7 +7838,7 @@
       </c>
       <c r="B330" cm="1">
         <f t="array" ref="B330">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -6857,7 +7847,7 @@
       </c>
       <c r="B331" cm="1">
         <f t="array" ref="B331">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -6866,7 +7856,7 @@
       </c>
       <c r="B332" cm="1">
         <f t="array" ref="B332">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
@@ -6875,7 +7865,7 @@
       </c>
       <c r="B333" cm="1">
         <f t="array" ref="B333">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
@@ -6884,7 +7874,7 @@
       </c>
       <c r="B334" cm="1">
         <f t="array" ref="B334">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
@@ -6893,7 +7883,7 @@
       </c>
       <c r="B335" cm="1">
         <f t="array" ref="B335">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -6902,7 +7892,7 @@
       </c>
       <c r="B336" cm="1">
         <f t="array" ref="B336">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
@@ -6911,7 +7901,7 @@
       </c>
       <c r="B337" cm="1">
         <f t="array" ref="B337">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
@@ -6920,7 +7910,7 @@
       </c>
       <c r="B338" cm="1">
         <f t="array" ref="B338">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
@@ -6929,7 +7919,7 @@
       </c>
       <c r="B339" cm="1">
         <f t="array" ref="B339">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -6938,7 +7928,7 @@
       </c>
       <c r="B340" cm="1">
         <f t="array" ref="B340">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
@@ -6947,7 +7937,7 @@
       </c>
       <c r="B341" cm="1">
         <f t="array" ref="B341">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
@@ -6956,7 +7946,7 @@
       </c>
       <c r="B342" cm="1">
         <f t="array" ref="B342">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
@@ -6965,7 +7955,7 @@
       </c>
       <c r="B343" cm="1">
         <f t="array" ref="B343">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
@@ -6974,7 +7964,7 @@
       </c>
       <c r="B344" cm="1">
         <f t="array" ref="B344">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
@@ -6983,7 +7973,7 @@
       </c>
       <c r="B345" cm="1">
         <f t="array" ref="B345">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
@@ -6992,7 +7982,7 @@
       </c>
       <c r="B346" cm="1">
         <f t="array" ref="B346">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
@@ -7001,7 +7991,7 @@
       </c>
       <c r="B347" cm="1">
         <f t="array" ref="B347">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
@@ -7010,7 +8000,7 @@
       </c>
       <c r="B348" cm="1">
         <f t="array" ref="B348">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
@@ -7019,7 +8009,7 @@
       </c>
       <c r="B349" cm="1">
         <f t="array" ref="B349">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
@@ -7028,7 +8018,7 @@
       </c>
       <c r="B350" cm="1">
         <f t="array" ref="B350">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
@@ -7037,7 +8027,7 @@
       </c>
       <c r="B351" cm="1">
         <f t="array" ref="B351">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
@@ -7046,7 +8036,7 @@
       </c>
       <c r="B352" cm="1">
         <f t="array" ref="B352">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
@@ -7055,7 +8045,7 @@
       </c>
       <c r="B353" cm="1">
         <f t="array" ref="B353">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
@@ -7064,7 +8054,7 @@
       </c>
       <c r="B354" cm="1">
         <f t="array" ref="B354">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
@@ -7073,7 +8063,7 @@
       </c>
       <c r="B355" cm="1">
         <f t="array" ref="B355">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
@@ -7082,7 +8072,7 @@
       </c>
       <c r="B356" cm="1">
         <f t="array" ref="B356">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
@@ -7091,7 +8081,7 @@
       </c>
       <c r="B357" cm="1">
         <f t="array" ref="B357">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
@@ -7100,7 +8090,7 @@
       </c>
       <c r="B358" cm="1">
         <f t="array" ref="B358">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
@@ -7109,7 +8099,7 @@
       </c>
       <c r="B359" cm="1">
         <f t="array" ref="B359">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -7118,7 +8108,7 @@
       </c>
       <c r="B360" cm="1">
         <f t="array" ref="B360">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
@@ -7127,7 +8117,7 @@
       </c>
       <c r="B361" cm="1">
         <f t="array" ref="B361">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
@@ -7136,7 +8126,7 @@
       </c>
       <c r="B362" cm="1">
         <f t="array" ref="B362">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
@@ -7145,7 +8135,7 @@
       </c>
       <c r="B363" cm="1">
         <f t="array" ref="B363">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
@@ -7154,7 +8144,7 @@
       </c>
       <c r="B364" cm="1">
         <f t="array" ref="B364">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
@@ -7163,7 +8153,7 @@
       </c>
       <c r="B365" cm="1">
         <f t="array" ref="B365">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
@@ -7172,7 +8162,7 @@
       </c>
       <c r="B366" cm="1">
         <f t="array" ref="B366">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
@@ -7181,7 +8171,7 @@
       </c>
       <c r="B367" cm="1">
         <f t="array" ref="B367">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
@@ -7190,7 +8180,7 @@
       </c>
       <c r="B368" cm="1">
         <f t="array" ref="B368">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
@@ -7199,7 +8189,7 @@
       </c>
       <c r="B369" cm="1">
         <f t="array" ref="B369">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
@@ -7208,7 +8198,7 @@
       </c>
       <c r="B370" cm="1">
         <f t="array" ref="B370">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
@@ -7217,7 +8207,7 @@
       </c>
       <c r="B371" cm="1">
         <f t="array" ref="B371">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
@@ -7226,7 +8216,7 @@
       </c>
       <c r="B372" cm="1">
         <f t="array" ref="B372">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
@@ -7235,7 +8225,7 @@
       </c>
       <c r="B373" cm="1">
         <f t="array" ref="B373">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
@@ -7244,7 +8234,7 @@
       </c>
       <c r="B374" cm="1">
         <f t="array" ref="B374">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
@@ -7253,7 +8243,7 @@
       </c>
       <c r="B375" cm="1">
         <f t="array" ref="B375">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
@@ -7262,7 +8252,7 @@
       </c>
       <c r="B376" cm="1">
         <f t="array" ref="B376">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
@@ -7271,7 +8261,7 @@
       </c>
       <c r="B377" cm="1">
         <f t="array" ref="B377">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
@@ -7280,7 +8270,7 @@
       </c>
       <c r="B378" cm="1">
         <f t="array" ref="B378">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
@@ -7289,7 +8279,7 @@
       </c>
       <c r="B379" cm="1">
         <f t="array" ref="B379">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
@@ -7298,7 +8288,7 @@
       </c>
       <c r="B380" cm="1">
         <f t="array" ref="B380">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
@@ -7307,7 +8297,7 @@
       </c>
       <c r="B381" cm="1">
         <f t="array" ref="B381">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
@@ -7316,7 +8306,7 @@
       </c>
       <c r="B382" cm="1">
         <f t="array" ref="B382">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -7325,7 +8315,7 @@
       </c>
       <c r="B383" cm="1">
         <f t="array" ref="B383">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
@@ -7334,7 +8324,7 @@
       </c>
       <c r="B384" cm="1">
         <f t="array" ref="B384">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
@@ -7343,7 +8333,7 @@
       </c>
       <c r="B385" cm="1">
         <f t="array" ref="B385">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
@@ -7352,7 +8342,7 @@
       </c>
       <c r="B386" cm="1">
         <f t="array" ref="B386">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
@@ -7361,7 +8351,7 @@
       </c>
       <c r="B387" cm="1">
         <f t="array" ref="B387">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
@@ -7370,7 +8360,7 @@
       </c>
       <c r="B388" cm="1">
         <f t="array" ref="B388">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
@@ -7379,7 +8369,7 @@
       </c>
       <c r="B389" cm="1">
         <f t="array" ref="B389">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
@@ -7388,7 +8378,7 @@
       </c>
       <c r="B390" cm="1">
         <f t="array" ref="B390">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
@@ -7397,7 +8387,7 @@
       </c>
       <c r="B391" cm="1">
         <f t="array" ref="B391">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
@@ -7406,7 +8396,7 @@
       </c>
       <c r="B392" cm="1">
         <f t="array" ref="B392">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
@@ -7415,7 +8405,7 @@
       </c>
       <c r="B393" cm="1">
         <f t="array" ref="B393">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
@@ -7424,7 +8414,7 @@
       </c>
       <c r="B394" cm="1">
         <f t="array" ref="B394">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
@@ -7433,7 +8423,7 @@
       </c>
       <c r="B395" cm="1">
         <f t="array" ref="B395">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
@@ -7442,7 +8432,7 @@
       </c>
       <c r="B396" cm="1">
         <f t="array" ref="B396">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
@@ -7451,7 +8441,7 @@
       </c>
       <c r="B397" cm="1">
         <f t="array" ref="B397">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
@@ -7460,7 +8450,7 @@
       </c>
       <c r="B398" cm="1">
         <f t="array" ref="B398">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
@@ -7469,7 +8459,7 @@
       </c>
       <c r="B399" cm="1">
         <f t="array" ref="B399">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
@@ -7478,7 +8468,7 @@
       </c>
       <c r="B400" cm="1">
         <f t="array" ref="B400">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
@@ -7487,7 +8477,7 @@
       </c>
       <c r="B401" cm="1">
         <f t="array" ref="B401">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
@@ -7496,7 +8486,7 @@
       </c>
       <c r="B402" cm="1">
         <f t="array" ref="B402">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
@@ -7505,7 +8495,7 @@
       </c>
       <c r="B403" cm="1">
         <f t="array" ref="B403">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
@@ -7514,7 +8504,7 @@
       </c>
       <c r="B404" cm="1">
         <f t="array" ref="B404">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
@@ -7523,7 +8513,7 @@
       </c>
       <c r="B405" cm="1">
         <f t="array" ref="B405">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
@@ -7532,7 +8522,7 @@
       </c>
       <c r="B406" cm="1">
         <f t="array" ref="B406">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
@@ -7541,7 +8531,7 @@
       </c>
       <c r="B407" cm="1">
         <f t="array" ref="B407">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
@@ -7550,7 +8540,7 @@
       </c>
       <c r="B408" cm="1">
         <f t="array" ref="B408">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
@@ -7559,7 +8549,7 @@
       </c>
       <c r="B409" cm="1">
         <f t="array" ref="B409">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
@@ -7568,7 +8558,7 @@
       </c>
       <c r="B410" cm="1">
         <f t="array" ref="B410">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
@@ -7577,7 +8567,7 @@
       </c>
       <c r="B411" cm="1">
         <f t="array" ref="B411">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
@@ -7586,7 +8576,7 @@
       </c>
       <c r="B412" cm="1">
         <f t="array" ref="B412">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
@@ -7595,7 +8585,7 @@
       </c>
       <c r="B413" cm="1">
         <f t="array" ref="B413">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
@@ -7604,7 +8594,7 @@
       </c>
       <c r="B414" cm="1">
         <f t="array" ref="B414">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
@@ -7613,7 +8603,7 @@
       </c>
       <c r="B415" cm="1">
         <f t="array" ref="B415">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
@@ -7622,7 +8612,7 @@
       </c>
       <c r="B416" cm="1">
         <f t="array" ref="B416">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
@@ -7631,7 +8621,7 @@
       </c>
       <c r="B417" cm="1">
         <f t="array" ref="B417">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
@@ -7640,7 +8630,7 @@
       </c>
       <c r="B418" cm="1">
         <f t="array" ref="B418">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
@@ -7649,7 +8639,7 @@
       </c>
       <c r="B419" cm="1">
         <f t="array" ref="B419">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
@@ -7658,7 +8648,7 @@
       </c>
       <c r="B420" cm="1">
         <f t="array" ref="B420">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
@@ -7667,7 +8657,7 @@
       </c>
       <c r="B421" cm="1">
         <f t="array" ref="B421">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
@@ -7676,7 +8666,7 @@
       </c>
       <c r="B422" cm="1">
         <f t="array" ref="B422">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
@@ -7685,7 +8675,7 @@
       </c>
       <c r="B423" cm="1">
         <f t="array" ref="B423">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
@@ -7694,7 +8684,7 @@
       </c>
       <c r="B424" cm="1">
         <f t="array" ref="B424">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -7703,7 +8693,7 @@
       </c>
       <c r="B425" cm="1">
         <f t="array" ref="B425">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
@@ -7712,7 +8702,7 @@
       </c>
       <c r="B426" cm="1">
         <f t="array" ref="B426">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
@@ -7721,7 +8711,7 @@
       </c>
       <c r="B427" cm="1">
         <f t="array" ref="B427">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
@@ -7730,7 +8720,7 @@
       </c>
       <c r="B428" cm="1">
         <f t="array" ref="B428">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
@@ -7739,7 +8729,7 @@
       </c>
       <c r="B429" cm="1">
         <f t="array" ref="B429">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
@@ -7748,7 +8738,7 @@
       </c>
       <c r="B430" cm="1">
         <f t="array" ref="B430">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
@@ -7757,7 +8747,7 @@
       </c>
       <c r="B431" cm="1">
         <f t="array" ref="B431">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
@@ -7766,7 +8756,7 @@
       </c>
       <c r="B432" cm="1">
         <f t="array" ref="B432">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
@@ -7775,7 +8765,7 @@
       </c>
       <c r="B433" cm="1">
         <f t="array" ref="B433">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
@@ -7784,7 +8774,7 @@
       </c>
       <c r="B434" cm="1">
         <f t="array" ref="B434">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
@@ -7793,7 +8783,7 @@
       </c>
       <c r="B435" cm="1">
         <f t="array" ref="B435">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
@@ -7802,7 +8792,7 @@
       </c>
       <c r="B436" cm="1">
         <f t="array" ref="B436">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
@@ -7811,7 +8801,7 @@
       </c>
       <c r="B437" cm="1">
         <f t="array" ref="B437">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
@@ -7820,7 +8810,7 @@
       </c>
       <c r="B438" cm="1">
         <f t="array" ref="B438">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
@@ -7829,7 +8819,7 @@
       </c>
       <c r="B439" cm="1">
         <f t="array" ref="B439">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
@@ -7838,7 +8828,7 @@
       </c>
       <c r="B440" cm="1">
         <f t="array" ref="B440">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
@@ -7847,7 +8837,7 @@
       </c>
       <c r="B441" cm="1">
         <f t="array" ref="B441">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
@@ -7856,7 +8846,7 @@
       </c>
       <c r="B442" cm="1">
         <f t="array" ref="B442">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
@@ -7865,7 +8855,7 @@
       </c>
       <c r="B443" cm="1">
         <f t="array" ref="B443">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
@@ -7874,7 +8864,7 @@
       </c>
       <c r="B444" cm="1">
         <f t="array" ref="B444">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
@@ -7883,7 +8873,7 @@
       </c>
       <c r="B445" cm="1">
         <f t="array" ref="B445">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
@@ -7892,7 +8882,7 @@
       </c>
       <c r="B446" cm="1">
         <f t="array" ref="B446">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
@@ -7901,7 +8891,7 @@
       </c>
       <c r="B447" cm="1">
         <f t="array" ref="B447">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
@@ -7910,7 +8900,7 @@
       </c>
       <c r="B448" cm="1">
         <f t="array" ref="B448">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
@@ -7919,7 +8909,7 @@
       </c>
       <c r="B449" cm="1">
         <f t="array" ref="B449">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
@@ -7928,7 +8918,7 @@
       </c>
       <c r="B450" cm="1">
         <f t="array" ref="B450">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
@@ -7937,7 +8927,7 @@
       </c>
       <c r="B451" cm="1">
         <f t="array" ref="B451">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
@@ -7946,7 +8936,7 @@
       </c>
       <c r="B452" cm="1">
         <f t="array" ref="B452">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
@@ -7955,7 +8945,7 @@
       </c>
       <c r="B453" cm="1">
         <f t="array" ref="B453">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
@@ -7964,7 +8954,7 @@
       </c>
       <c r="B454" cm="1">
         <f t="array" ref="B454">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
@@ -7973,7 +8963,7 @@
       </c>
       <c r="B455" cm="1">
         <f t="array" ref="B455">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
@@ -7982,7 +8972,7 @@
       </c>
       <c r="B456" cm="1">
         <f t="array" ref="B456">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
@@ -7991,7 +8981,7 @@
       </c>
       <c r="B457" cm="1">
         <f t="array" ref="B457">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
@@ -8000,7 +8990,7 @@
       </c>
       <c r="B458" cm="1">
         <f t="array" ref="B458">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
@@ -8009,7 +8999,7 @@
       </c>
       <c r="B459" cm="1">
         <f t="array" ref="B459">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
@@ -8018,7 +9008,7 @@
       </c>
       <c r="B460" cm="1">
         <f t="array" ref="B460">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
@@ -8027,7 +9017,7 @@
       </c>
       <c r="B461" cm="1">
         <f t="array" ref="B461">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
@@ -8036,7 +9026,7 @@
       </c>
       <c r="B462" cm="1">
         <f t="array" ref="B462">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
@@ -8045,7 +9035,7 @@
       </c>
       <c r="B463" cm="1">
         <f t="array" ref="B463">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
@@ -8054,7 +9044,7 @@
       </c>
       <c r="B464" cm="1">
         <f t="array" ref="B464">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
@@ -8063,7 +9053,7 @@
       </c>
       <c r="B465" cm="1">
         <f t="array" ref="B465">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
@@ -8072,7 +9062,7 @@
       </c>
       <c r="B466" cm="1">
         <f t="array" ref="B466">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
@@ -8081,7 +9071,7 @@
       </c>
       <c r="B467" cm="1">
         <f t="array" ref="B467">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
@@ -8090,7 +9080,7 @@
       </c>
       <c r="B468" cm="1">
         <f t="array" ref="B468">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
@@ -8099,7 +9089,7 @@
       </c>
       <c r="B469" cm="1">
         <f t="array" ref="B469">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
@@ -8108,7 +9098,7 @@
       </c>
       <c r="B470" cm="1">
         <f t="array" ref="B470">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
@@ -8117,7 +9107,7 @@
       </c>
       <c r="B471" cm="1">
         <f t="array" ref="B471">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
@@ -8126,7 +9116,7 @@
       </c>
       <c r="B472" cm="1">
         <f t="array" ref="B472">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
@@ -8135,7 +9125,7 @@
       </c>
       <c r="B473" cm="1">
         <f t="array" ref="B473">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
@@ -8144,7 +9134,7 @@
       </c>
       <c r="B474" cm="1">
         <f t="array" ref="B474">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
@@ -8153,7 +9143,7 @@
       </c>
       <c r="B475" cm="1">
         <f t="array" ref="B475">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
@@ -8162,7 +9152,7 @@
       </c>
       <c r="B476" cm="1">
         <f t="array" ref="B476">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
@@ -8171,7 +9161,7 @@
       </c>
       <c r="B477" cm="1">
         <f t="array" ref="B477">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
@@ -8180,7 +9170,7 @@
       </c>
       <c r="B478" cm="1">
         <f t="array" ref="B478">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
@@ -8189,7 +9179,7 @@
       </c>
       <c r="B479" cm="1">
         <f t="array" ref="B479">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
@@ -8198,7 +9188,7 @@
       </c>
       <c r="B480" cm="1">
         <f t="array" ref="B480">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
@@ -8207,7 +9197,7 @@
       </c>
       <c r="B481" cm="1">
         <f t="array" ref="B481">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
@@ -8216,7 +9206,7 @@
       </c>
       <c r="B482" cm="1">
         <f t="array" ref="B482">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
@@ -8225,7 +9215,7 @@
       </c>
       <c r="B483" cm="1">
         <f t="array" ref="B483">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
@@ -8234,7 +9224,7 @@
       </c>
       <c r="B484" cm="1">
         <f t="array" ref="B484">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
@@ -8243,7 +9233,7 @@
       </c>
       <c r="B485" cm="1">
         <f t="array" ref="B485">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
@@ -8252,7 +9242,7 @@
       </c>
       <c r="B486" cm="1">
         <f t="array" ref="B486">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
@@ -8261,7 +9251,7 @@
       </c>
       <c r="B487" cm="1">
         <f t="array" ref="B487">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
@@ -8270,7 +9260,7 @@
       </c>
       <c r="B488" cm="1">
         <f t="array" ref="B488">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
@@ -8279,7 +9269,7 @@
       </c>
       <c r="B489" cm="1">
         <f t="array" ref="B489">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
@@ -8288,7 +9278,7 @@
       </c>
       <c r="B490" cm="1">
         <f t="array" ref="B490">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
@@ -8297,7 +9287,7 @@
       </c>
       <c r="B491" cm="1">
         <f t="array" ref="B491">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
@@ -8306,7 +9296,7 @@
       </c>
       <c r="B492" cm="1">
         <f t="array" ref="B492">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
@@ -8315,7 +9305,7 @@
       </c>
       <c r="B493" cm="1">
         <f t="array" ref="B493">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
@@ -8324,7 +9314,7 @@
       </c>
       <c r="B494" cm="1">
         <f t="array" ref="B494">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
@@ -8333,7 +9323,7 @@
       </c>
       <c r="B495" cm="1">
         <f t="array" ref="B495">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
@@ -8342,7 +9332,7 @@
       </c>
       <c r="B496" cm="1">
         <f t="array" ref="B496">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
@@ -8351,7 +9341,7 @@
       </c>
       <c r="B497" cm="1">
         <f t="array" ref="B497">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
@@ -8360,7 +9350,7 @@
       </c>
       <c r="B498" cm="1">
         <f t="array" ref="B498">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
@@ -8369,7 +9359,7 @@
       </c>
       <c r="B499" cm="1">
         <f t="array" ref="B499">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
@@ -8378,7 +9368,7 @@
       </c>
       <c r="B500" cm="1">
         <f t="array" ref="B500">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
@@ -8387,7 +9377,7 @@
       </c>
       <c r="B501" cm="1">
         <f t="array" ref="B501">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
@@ -8396,7 +9386,7 @@
       </c>
       <c r="B502" cm="1">
         <f t="array" ref="B502">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
@@ -8405,7 +9395,7 @@
       </c>
       <c r="B503" cm="1">
         <f t="array" ref="B503">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
@@ -8414,7 +9404,7 @@
       </c>
       <c r="B504" cm="1">
         <f t="array" ref="B504">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
@@ -8423,7 +9413,7 @@
       </c>
       <c r="B505" cm="1">
         <f t="array" ref="B505">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
@@ -8432,7 +9422,7 @@
       </c>
       <c r="B506" cm="1">
         <f t="array" ref="B506">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
@@ -8441,7 +9431,7 @@
       </c>
       <c r="B507" cm="1">
         <f t="array" ref="B507">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
@@ -8450,7 +9440,7 @@
       </c>
       <c r="B508" cm="1">
         <f t="array" ref="B508">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
@@ -8459,7 +9449,7 @@
       </c>
       <c r="B509" cm="1">
         <f t="array" ref="B509">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
@@ -8468,7 +9458,7 @@
       </c>
       <c r="B510" cm="1">
         <f t="array" ref="B510">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
@@ -8477,7 +9467,7 @@
       </c>
       <c r="B511" cm="1">
         <f t="array" ref="B511">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
@@ -8486,7 +9476,7 @@
       </c>
       <c r="B512" cm="1">
         <f t="array" ref="B512">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
@@ -8495,7 +9485,7 @@
       </c>
       <c r="B513" cm="1">
         <f t="array" ref="B513">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
@@ -8504,7 +9494,7 @@
       </c>
       <c r="B514" cm="1">
         <f t="array" ref="B514">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
@@ -8513,7 +9503,7 @@
       </c>
       <c r="B515" cm="1">
         <f t="array" ref="B515">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
@@ -8522,7 +9512,7 @@
       </c>
       <c r="B516" cm="1">
         <f t="array" ref="B516">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
@@ -8531,7 +9521,7 @@
       </c>
       <c r="B517" cm="1">
         <f t="array" ref="B517">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
@@ -8540,7 +9530,7 @@
       </c>
       <c r="B518" cm="1">
         <f t="array" ref="B518">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
@@ -8549,7 +9539,7 @@
       </c>
       <c r="B519" cm="1">
         <f t="array" ref="B519">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
@@ -8558,7 +9548,7 @@
       </c>
       <c r="B520" cm="1">
         <f t="array" ref="B520">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
@@ -8567,7 +9557,7 @@
       </c>
       <c r="B521" cm="1">
         <f t="array" ref="B521">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
@@ -8576,7 +9566,7 @@
       </c>
       <c r="B522" cm="1">
         <f t="array" ref="B522">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
@@ -8585,7 +9575,7 @@
       </c>
       <c r="B523" cm="1">
         <f t="array" ref="B523">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
@@ -8594,7 +9584,7 @@
       </c>
       <c r="B524" cm="1">
         <f t="array" ref="B524">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
@@ -8603,7 +9593,7 @@
       </c>
       <c r="B525" cm="1">
         <f t="array" ref="B525">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
@@ -8612,7 +9602,7 @@
       </c>
       <c r="B526" cm="1">
         <f t="array" ref="B526">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
@@ -8621,7 +9611,7 @@
       </c>
       <c r="B527" cm="1">
         <f t="array" ref="B527">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
@@ -8630,7 +9620,7 @@
       </c>
       <c r="B528" cm="1">
         <f t="array" ref="B528">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
@@ -8639,7 +9629,7 @@
       </c>
       <c r="B529" cm="1">
         <f t="array" ref="B529">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
@@ -8648,7 +9638,7 @@
       </c>
       <c r="B530" cm="1">
         <f t="array" ref="B530">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
@@ -8657,7 +9647,7 @@
       </c>
       <c r="B531" cm="1">
         <f t="array" ref="B531">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
@@ -8666,7 +9656,7 @@
       </c>
       <c r="B532" cm="1">
         <f t="array" ref="B532">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
@@ -8675,7 +9665,7 @@
       </c>
       <c r="B533" cm="1">
         <f t="array" ref="B533">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
@@ -8684,7 +9674,7 @@
       </c>
       <c r="B534" cm="1">
         <f t="array" ref="B534">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
@@ -8693,7 +9683,7 @@
       </c>
       <c r="B535" cm="1">
         <f t="array" ref="B535">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
@@ -8702,7 +9692,7 @@
       </c>
       <c r="B536" cm="1">
         <f t="array" ref="B536">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
@@ -8711,7 +9701,7 @@
       </c>
       <c r="B537" cm="1">
         <f t="array" ref="B537">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
@@ -8720,7 +9710,7 @@
       </c>
       <c r="B538" cm="1">
         <f t="array" ref="B538">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
@@ -8729,7 +9719,7 @@
       </c>
       <c r="B539" cm="1">
         <f t="array" ref="B539">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
@@ -8738,7 +9728,7 @@
       </c>
       <c r="B540" cm="1">
         <f t="array" ref="B540">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
@@ -8747,7 +9737,7 @@
       </c>
       <c r="B541" cm="1">
         <f t="array" ref="B541">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
@@ -8756,7 +9746,7 @@
       </c>
       <c r="B542" cm="1">
         <f t="array" ref="B542">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
@@ -8765,7 +9755,7 @@
       </c>
       <c r="B543" cm="1">
         <f t="array" ref="B543">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
@@ -8774,7 +9764,7 @@
       </c>
       <c r="B544" cm="1">
         <f t="array" ref="B544">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
@@ -8783,7 +9773,7 @@
       </c>
       <c r="B545" cm="1">
         <f t="array" ref="B545">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
@@ -8792,7 +9782,7 @@
       </c>
       <c r="B546" cm="1">
         <f t="array" ref="B546">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
@@ -8801,7 +9791,7 @@
       </c>
       <c r="B547" cm="1">
         <f t="array" ref="B547">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
@@ -8810,7 +9800,7 @@
       </c>
       <c r="B548" cm="1">
         <f t="array" ref="B548">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
@@ -8819,7 +9809,7 @@
       </c>
       <c r="B549" cm="1">
         <f t="array" ref="B549">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
@@ -8828,7 +9818,7 @@
       </c>
       <c r="B550" cm="1">
         <f t="array" ref="B550">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
@@ -8837,7 +9827,7 @@
       </c>
       <c r="B551" cm="1">
         <f t="array" ref="B551">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
@@ -8846,7 +9836,7 @@
       </c>
       <c r="B552" cm="1">
         <f t="array" ref="B552">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
@@ -8855,7 +9845,7 @@
       </c>
       <c r="B553" cm="1">
         <f t="array" ref="B553">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
@@ -8864,7 +9854,7 @@
       </c>
       <c r="B554" cm="1">
         <f t="array" ref="B554">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
@@ -8873,7 +9863,7 @@
       </c>
       <c r="B555" cm="1">
         <f t="array" ref="B555">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
@@ -8882,7 +9872,7 @@
       </c>
       <c r="B556" cm="1">
         <f t="array" ref="B556">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
@@ -8891,7 +9881,7 @@
       </c>
       <c r="B557" cm="1">
         <f t="array" ref="B557">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
@@ -8900,7 +9890,7 @@
       </c>
       <c r="B558" cm="1">
         <f t="array" ref="B558">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
@@ -8909,7 +9899,7 @@
       </c>
       <c r="B559" cm="1">
         <f t="array" ref="B559">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
@@ -8918,7 +9908,7 @@
       </c>
       <c r="B560" cm="1">
         <f t="array" ref="B560">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
@@ -8927,7 +9917,7 @@
       </c>
       <c r="B561" cm="1">
         <f t="array" ref="B561">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
@@ -8936,7 +9926,7 @@
       </c>
       <c r="B562" cm="1">
         <f t="array" ref="B562">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
@@ -8945,7 +9935,7 @@
       </c>
       <c r="B563" cm="1">
         <f t="array" ref="B563">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
@@ -8954,7 +9944,7 @@
       </c>
       <c r="B564" cm="1">
         <f t="array" ref="B564">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
@@ -8963,7 +9953,7 @@
       </c>
       <c r="B565" cm="1">
         <f t="array" ref="B565">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
@@ -8972,7 +9962,7 @@
       </c>
       <c r="B566" cm="1">
         <f t="array" ref="B566">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
@@ -8981,7 +9971,7 @@
       </c>
       <c r="B567" cm="1">
         <f t="array" ref="B567">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
@@ -8990,7 +9980,7 @@
       </c>
       <c r="B568" cm="1">
         <f t="array" ref="B568">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
@@ -8999,7 +9989,7 @@
       </c>
       <c r="B569" cm="1">
         <f t="array" ref="B569">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
@@ -9008,7 +9998,7 @@
       </c>
       <c r="B570" cm="1">
         <f t="array" ref="B570">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
@@ -9017,7 +10007,7 @@
       </c>
       <c r="B571" cm="1">
         <f t="array" ref="B571">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
@@ -9026,7 +10016,7 @@
       </c>
       <c r="B572" cm="1">
         <f t="array" ref="B572">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
@@ -9035,7 +10025,7 @@
       </c>
       <c r="B573" cm="1">
         <f t="array" ref="B573">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
@@ -9044,7 +10034,7 @@
       </c>
       <c r="B574" cm="1">
         <f t="array" ref="B574">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
@@ -9053,7 +10043,7 @@
       </c>
       <c r="B575" cm="1">
         <f t="array" ref="B575">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
@@ -9062,7 +10052,7 @@
       </c>
       <c r="B576" cm="1">
         <f t="array" ref="B576">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
@@ -9071,7 +10061,7 @@
       </c>
       <c r="B577" cm="1">
         <f t="array" ref="B577">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
@@ -9080,7 +10070,7 @@
       </c>
       <c r="B578" cm="1">
         <f t="array" ref="B578">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
@@ -9089,7 +10079,7 @@
       </c>
       <c r="B579" cm="1">
         <f t="array" ref="B579">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
@@ -9098,7 +10088,7 @@
       </c>
       <c r="B580" cm="1">
         <f t="array" ref="B580">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
@@ -9107,7 +10097,7 @@
       </c>
       <c r="B581" cm="1">
         <f t="array" ref="B581">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
@@ -9116,7 +10106,7 @@
       </c>
       <c r="B582" cm="1">
         <f t="array" ref="B582">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
@@ -9125,7 +10115,7 @@
       </c>
       <c r="B583" cm="1">
         <f t="array" ref="B583">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
@@ -9134,7 +10124,7 @@
       </c>
       <c r="B584" cm="1">
         <f t="array" ref="B584">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
@@ -9143,7 +10133,7 @@
       </c>
       <c r="B585" cm="1">
         <f t="array" ref="B585">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
@@ -9152,7 +10142,7 @@
       </c>
       <c r="B586" cm="1">
         <f t="array" ref="B586">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
@@ -9161,7 +10151,7 @@
       </c>
       <c r="B587" cm="1">
         <f t="array" ref="B587">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
@@ -9170,7 +10160,7 @@
       </c>
       <c r="B588" cm="1">
         <f t="array" ref="B588">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
@@ -9179,7 +10169,7 @@
       </c>
       <c r="B589" cm="1">
         <f t="array" ref="B589">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
@@ -9188,7 +10178,7 @@
       </c>
       <c r="B590" cm="1">
         <f t="array" ref="B590">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
@@ -9197,7 +10187,7 @@
       </c>
       <c r="B591" cm="1">
         <f t="array" ref="B591">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
@@ -9206,7 +10196,7 @@
       </c>
       <c r="B592" cm="1">
         <f t="array" ref="B592">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
@@ -9215,7 +10205,7 @@
       </c>
       <c r="B593" cm="1">
         <f t="array" ref="B593">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
@@ -9224,7 +10214,7 @@
       </c>
       <c r="B594" cm="1">
         <f t="array" ref="B594">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
@@ -9233,7 +10223,7 @@
       </c>
       <c r="B595" cm="1">
         <f t="array" ref="B595">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
@@ -9242,7 +10232,7 @@
       </c>
       <c r="B596" cm="1">
         <f t="array" ref="B596">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
@@ -9251,7 +10241,7 @@
       </c>
       <c r="B597" cm="1">
         <f t="array" ref="B597">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
@@ -9260,7 +10250,7 @@
       </c>
       <c r="B598" cm="1">
         <f t="array" ref="B598">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
@@ -9269,7 +10259,7 @@
       </c>
       <c r="B599" cm="1">
         <f t="array" ref="B599">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
@@ -9278,7 +10268,7 @@
       </c>
       <c r="B600" cm="1">
         <f t="array" ref="B600">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
@@ -9287,7 +10277,7 @@
       </c>
       <c r="B601" cm="1">
         <f t="array" ref="B601">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
@@ -9296,7 +10286,7 @@
       </c>
       <c r="B602" cm="1">
         <f t="array" ref="B602">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -9305,4 +10295,163 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D185E7C-0804-46F0-ADFE-E2BCC31C90C5}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.01</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>LOG(F2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>$B$2^((3-A2)/(3-1))</f>
+        <v>0.01</v>
+      </c>
+      <c r="F3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G12" si="0">LOG(F3)</f>
+        <v>4.1392685158225077E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B5" si="1">$B$2^((3-A3)/(3-1))</f>
+        <v>0.1</v>
+      </c>
+      <c r="F4">
+        <v>1.2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>7.9181246047624818E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1.3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.11394335230683679</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>1.4</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.14612803567823801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>1.5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.17609125905568124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>1.6</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.20411998265592479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>1.7</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.23044892137827391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>1.8</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.25527250510330607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>1.9</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.27875360095282892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/results_dual_agregee.xlsx
+++ b/results_dual_agregee.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathis\Documents\Etudes\4A\Cours-MPRO\PROJ\PROJET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3533E2A-51D6-451F-BCF8-756AC1EC443E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9554DECF-A614-4AEA-935C-F40B1F7FDD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="249">
   <si>
     <t>Instance</t>
   </si>
@@ -807,24 +806,6 @@
   </si>
   <si>
     <t>plans_coupants</t>
-  </si>
-  <si>
-    <t>2400_USA-road-d.COL.gr</t>
-  </si>
-  <si>
-    <t>61, 88, 213, 275, 312, 481, 720, 903, 946, 1327, 1410, 2006, 2034, 2050, 2150, 2170, 2259, 2272</t>
-  </si>
-  <si>
-    <t>2300_USA-road-d.COL.gr</t>
-  </si>
-  <si>
-    <t>88, 181, 238, 536, 701, 775, 904, 946, 955, 1330, 1410, 1669, 1882, 2050, 2216, 2256, 2272, 2299</t>
-  </si>
-  <si>
-    <t>Colonne1</t>
-  </si>
-  <si>
-    <t>Colonne2</t>
   </si>
 </sst>
 </file>
@@ -925,43 +906,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -985,6 +929,43 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -996,934 +977,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil2!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Colonne2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Feuil2!$F$2:$F$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil2!$G$2:$G$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.1392685158225077E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.9181246047624818E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.11394335230683679</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14612803567823801</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17609125905568124</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.20411998265592479</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.23044892137827391</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.25527250510330607</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.27875360095282892</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.3010299956639812</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7E7F-466C-A943-0A81FDD4CB2C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1738782384"/>
-        <c:axId val="1424864064"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1738782384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1424864064"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1424864064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1738782384"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{707CCB49-A4D0-03F5-C661-E4E3711246E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1944,25 +997,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9FCBF1A1-D84D-4B0E-9E4E-F679610B57B7}" name="Tableau2" displayName="Tableau2" ref="A1:B602" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9FCBF1A1-D84D-4B0E-9E4E-F679610B57B7}" name="Tableau2" displayName="Tableau2" ref="A1:B602" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
   <autoFilter ref="A1:B602" xr:uid="{9FCBF1A1-D84D-4B0E-9E4E-F679610B57B7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{635AF980-5AFA-4973-BCC0-BBBF3DAE567B}" name="Temps" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{635AF980-5AFA-4973-BCC0-BBBF3DAE567B}" name="Temps" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{99DBCC33-9C01-4F6E-973C-D67C11364EAE}" name="plans_coupants">
       <calculatedColumnFormula array="1">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{66F08417-8F86-4975-898C-6FC9F77DE155}" name="Tableau3" displayName="Tableau3" ref="F1:G12" totalsRowShown="0">
-  <autoFilter ref="F1:G12" xr:uid="{66F08417-8F86-4975-898C-6FC9F77DE155}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F2803CA7-5670-4A13-902B-B9C6E024E7B2}" name="Colonne1"/>
-    <tableColumn id="2" xr3:uid="{81CF0BD9-F1FF-4196-AD1C-AC50E8D9037D}" name="Colonne2">
-      <calculatedColumnFormula>LOG(F2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2234,13 +1274,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="H127" sqref="H127"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" customWidth="1"/>
@@ -4683,24 +3723,9 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>251</v>
-      </c>
-      <c r="B117">
-        <v>602.28999996185303</v>
-      </c>
-      <c r="C117" t="s">
-        <v>252</v>
-      </c>
-      <c r="D117">
-        <v>50172.479999999996</v>
-      </c>
-      <c r="E117">
-        <v>40881.440160514518</v>
-      </c>
       <c r="F117">
         <f>IF(Tableau1[[#This Row],[Temps]]&lt;=599, 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -4746,24 +3771,9 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>249</v>
-      </c>
-      <c r="B120">
-        <v>603.20099997520447</v>
-      </c>
-      <c r="C120" t="s">
-        <v>250</v>
-      </c>
-      <c r="D120">
-        <v>50520.58</v>
-      </c>
-      <c r="E120">
-        <v>40629.674223232003</v>
-      </c>
       <c r="F120">
         <f>IF(Tableau1[[#This Row],[Temps]]&lt;=599, 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -4863,8 +3873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB67B4A5-8627-4294-A144-C43A9587C0BA}">
   <dimension ref="A1:B602"/>
   <sheetViews>
-    <sheetView topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B602"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A602" sqref="A1:B602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4886,7 +3896,7 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4895,7 +3905,7 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4904,7 +3914,7 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4913,7 +3923,7 @@
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4922,7 +3932,7 @@
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4931,7 +3941,7 @@
       </c>
       <c r="B7" cm="1">
         <f t="array" ref="B7">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -4940,7 +3950,7 @@
       </c>
       <c r="B8" cm="1">
         <f t="array" ref="B8">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4949,7 +3959,7 @@
       </c>
       <c r="B9" cm="1">
         <f t="array" ref="B9">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -4958,7 +3968,7 @@
       </c>
       <c r="B10" cm="1">
         <f t="array" ref="B10">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4967,7 +3977,7 @@
       </c>
       <c r="B11" cm="1">
         <f t="array" ref="B11">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -4976,7 +3986,7 @@
       </c>
       <c r="B12" cm="1">
         <f t="array" ref="B12">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -4985,7 +3995,7 @@
       </c>
       <c r="B13" cm="1">
         <f t="array" ref="B13">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -4994,7 +4004,7 @@
       </c>
       <c r="B14" cm="1">
         <f t="array" ref="B14">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -5003,7 +4013,7 @@
       </c>
       <c r="B15" cm="1">
         <f t="array" ref="B15">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -5012,7 +4022,7 @@
       </c>
       <c r="B16" cm="1">
         <f t="array" ref="B16">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -5021,7 +4031,7 @@
       </c>
       <c r="B17" cm="1">
         <f t="array" ref="B17">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -5030,7 +4040,7 @@
       </c>
       <c r="B18" cm="1">
         <f t="array" ref="B18">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -5039,7 +4049,7 @@
       </c>
       <c r="B19" cm="1">
         <f t="array" ref="B19">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -5048,7 +4058,7 @@
       </c>
       <c r="B20" cm="1">
         <f t="array" ref="B20">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -5057,7 +4067,7 @@
       </c>
       <c r="B21" cm="1">
         <f t="array" ref="B21">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -5066,7 +4076,7 @@
       </c>
       <c r="B22" cm="1">
         <f t="array" ref="B22">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -5075,7 +4085,7 @@
       </c>
       <c r="B23" cm="1">
         <f t="array" ref="B23">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -5084,7 +4094,7 @@
       </c>
       <c r="B24" cm="1">
         <f t="array" ref="B24">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -5093,7 +4103,7 @@
       </c>
       <c r="B25" cm="1">
         <f t="array" ref="B25">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -5102,7 +4112,7 @@
       </c>
       <c r="B26" cm="1">
         <f t="array" ref="B26">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -5111,7 +4121,7 @@
       </c>
       <c r="B27" cm="1">
         <f t="array" ref="B27">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -5120,7 +4130,7 @@
       </c>
       <c r="B28" cm="1">
         <f t="array" ref="B28">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -5129,7 +4139,7 @@
       </c>
       <c r="B29" cm="1">
         <f t="array" ref="B29">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -5138,7 +4148,7 @@
       </c>
       <c r="B30" cm="1">
         <f t="array" ref="B30">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -5147,7 +4157,7 @@
       </c>
       <c r="B31" cm="1">
         <f t="array" ref="B31">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -5156,7 +4166,7 @@
       </c>
       <c r="B32" cm="1">
         <f t="array" ref="B32">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -5165,7 +4175,7 @@
       </c>
       <c r="B33" cm="1">
         <f t="array" ref="B33">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -5174,7 +4184,7 @@
       </c>
       <c r="B34" cm="1">
         <f t="array" ref="B34">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -5183,7 +4193,7 @@
       </c>
       <c r="B35" cm="1">
         <f t="array" ref="B35">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -5192,7 +4202,7 @@
       </c>
       <c r="B36" cm="1">
         <f t="array" ref="B36">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -5201,7 +4211,7 @@
       </c>
       <c r="B37" cm="1">
         <f t="array" ref="B37">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -5210,7 +4220,7 @@
       </c>
       <c r="B38" cm="1">
         <f t="array" ref="B38">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -5219,7 +4229,7 @@
       </c>
       <c r="B39" cm="1">
         <f t="array" ref="B39">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -5228,7 +4238,7 @@
       </c>
       <c r="B40" cm="1">
         <f t="array" ref="B40">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -5237,7 +4247,7 @@
       </c>
       <c r="B41" cm="1">
         <f t="array" ref="B41">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -5246,7 +4256,7 @@
       </c>
       <c r="B42" cm="1">
         <f t="array" ref="B42">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -5255,7 +4265,7 @@
       </c>
       <c r="B43" cm="1">
         <f t="array" ref="B43">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -5264,7 +4274,7 @@
       </c>
       <c r="B44" cm="1">
         <f t="array" ref="B44">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -5273,7 +4283,7 @@
       </c>
       <c r="B45" cm="1">
         <f t="array" ref="B45">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -5282,7 +4292,7 @@
       </c>
       <c r="B46" cm="1">
         <f t="array" ref="B46">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -5291,7 +4301,7 @@
       </c>
       <c r="B47" cm="1">
         <f t="array" ref="B47">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -5300,7 +4310,7 @@
       </c>
       <c r="B48" cm="1">
         <f t="array" ref="B48">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -5309,7 +4319,7 @@
       </c>
       <c r="B49" cm="1">
         <f t="array" ref="B49">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -5318,7 +4328,7 @@
       </c>
       <c r="B50" cm="1">
         <f t="array" ref="B50">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -5327,7 +4337,7 @@
       </c>
       <c r="B51" cm="1">
         <f t="array" ref="B51">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -5336,7 +4346,7 @@
       </c>
       <c r="B52" cm="1">
         <f t="array" ref="B52">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -5345,7 +4355,7 @@
       </c>
       <c r="B53" cm="1">
         <f t="array" ref="B53">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -5354,7 +4364,7 @@
       </c>
       <c r="B54" cm="1">
         <f t="array" ref="B54">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -5363,7 +4373,7 @@
       </c>
       <c r="B55" cm="1">
         <f t="array" ref="B55">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -5372,7 +4382,7 @@
       </c>
       <c r="B56" cm="1">
         <f t="array" ref="B56">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -5381,7 +4391,7 @@
       </c>
       <c r="B57" cm="1">
         <f t="array" ref="B57">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -5390,7 +4400,7 @@
       </c>
       <c r="B58" cm="1">
         <f t="array" ref="B58">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -5399,7 +4409,7 @@
       </c>
       <c r="B59" cm="1">
         <f t="array" ref="B59">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -5408,7 +4418,7 @@
       </c>
       <c r="B60" cm="1">
         <f t="array" ref="B60">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -5417,7 +4427,7 @@
       </c>
       <c r="B61" cm="1">
         <f t="array" ref="B61">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -5426,7 +4436,7 @@
       </c>
       <c r="B62" cm="1">
         <f t="array" ref="B62">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -5435,7 +4445,7 @@
       </c>
       <c r="B63" cm="1">
         <f t="array" ref="B63">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -5444,7 +4454,7 @@
       </c>
       <c r="B64" cm="1">
         <f t="array" ref="B64">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -5453,7 +4463,7 @@
       </c>
       <c r="B65" cm="1">
         <f t="array" ref="B65">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -5462,7 +4472,7 @@
       </c>
       <c r="B66" cm="1">
         <f t="array" ref="B66">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -5471,7 +4481,7 @@
       </c>
       <c r="B67" cm="1">
         <f t="array" ref="B67">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -5480,7 +4490,7 @@
       </c>
       <c r="B68" cm="1">
         <f t="array" ref="B68">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -5489,7 +4499,7 @@
       </c>
       <c r="B69" cm="1">
         <f t="array" ref="B69">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -5498,7 +4508,7 @@
       </c>
       <c r="B70" cm="1">
         <f t="array" ref="B70">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -5507,7 +4517,7 @@
       </c>
       <c r="B71" cm="1">
         <f t="array" ref="B71">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -5516,7 +4526,7 @@
       </c>
       <c r="B72" cm="1">
         <f t="array" ref="B72">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -5525,7 +4535,7 @@
       </c>
       <c r="B73" cm="1">
         <f t="array" ref="B73">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -5534,7 +4544,7 @@
       </c>
       <c r="B74" cm="1">
         <f t="array" ref="B74">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -5543,7 +4553,7 @@
       </c>
       <c r="B75" cm="1">
         <f t="array" ref="B75">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -5552,7 +4562,7 @@
       </c>
       <c r="B76" cm="1">
         <f t="array" ref="B76">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -5561,7 +4571,7 @@
       </c>
       <c r="B77" cm="1">
         <f t="array" ref="B77">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -5570,7 +4580,7 @@
       </c>
       <c r="B78" cm="1">
         <f t="array" ref="B78">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -5579,7 +4589,7 @@
       </c>
       <c r="B79" cm="1">
         <f t="array" ref="B79">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -5588,7 +4598,7 @@
       </c>
       <c r="B80" cm="1">
         <f t="array" ref="B80">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -5597,7 +4607,7 @@
       </c>
       <c r="B81" cm="1">
         <f t="array" ref="B81">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -5606,7 +4616,7 @@
       </c>
       <c r="B82" cm="1">
         <f t="array" ref="B82">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -5615,7 +4625,7 @@
       </c>
       <c r="B83" cm="1">
         <f t="array" ref="B83">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -5624,7 +4634,7 @@
       </c>
       <c r="B84" cm="1">
         <f t="array" ref="B84">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -5633,7 +4643,7 @@
       </c>
       <c r="B85" cm="1">
         <f t="array" ref="B85">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -5642,7 +4652,7 @@
       </c>
       <c r="B86" cm="1">
         <f t="array" ref="B86">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -5651,7 +4661,7 @@
       </c>
       <c r="B87" cm="1">
         <f t="array" ref="B87">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -5660,7 +4670,7 @@
       </c>
       <c r="B88" cm="1">
         <f t="array" ref="B88">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -5669,7 +4679,7 @@
       </c>
       <c r="B89" cm="1">
         <f t="array" ref="B89">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -5678,7 +4688,7 @@
       </c>
       <c r="B90" cm="1">
         <f t="array" ref="B90">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -5687,7 +4697,7 @@
       </c>
       <c r="B91" cm="1">
         <f t="array" ref="B91">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -5696,7 +4706,7 @@
       </c>
       <c r="B92" cm="1">
         <f t="array" ref="B92">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -5705,7 +4715,7 @@
       </c>
       <c r="B93" cm="1">
         <f t="array" ref="B93">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -5714,7 +4724,7 @@
       </c>
       <c r="B94" cm="1">
         <f t="array" ref="B94">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -5723,7 +4733,7 @@
       </c>
       <c r="B95" cm="1">
         <f t="array" ref="B95">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -5732,7 +4742,7 @@
       </c>
       <c r="B96" cm="1">
         <f t="array" ref="B96">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -5741,7 +4751,7 @@
       </c>
       <c r="B97" cm="1">
         <f t="array" ref="B97">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -5750,7 +4760,7 @@
       </c>
       <c r="B98" cm="1">
         <f t="array" ref="B98">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -5759,7 +4769,7 @@
       </c>
       <c r="B99" cm="1">
         <f t="array" ref="B99">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -5768,7 +4778,7 @@
       </c>
       <c r="B100" cm="1">
         <f t="array" ref="B100">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -5777,7 +4787,7 @@
       </c>
       <c r="B101" cm="1">
         <f t="array" ref="B101">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -5786,7 +4796,7 @@
       </c>
       <c r="B102" cm="1">
         <f t="array" ref="B102">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -5795,7 +4805,7 @@
       </c>
       <c r="B103" cm="1">
         <f t="array" ref="B103">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -5804,7 +4814,7 @@
       </c>
       <c r="B104" cm="1">
         <f t="array" ref="B104">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -5813,7 +4823,7 @@
       </c>
       <c r="B105" cm="1">
         <f t="array" ref="B105">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -5822,7 +4832,7 @@
       </c>
       <c r="B106" cm="1">
         <f t="array" ref="B106">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -5831,7 +4841,7 @@
       </c>
       <c r="B107" cm="1">
         <f t="array" ref="B107">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -5840,7 +4850,7 @@
       </c>
       <c r="B108" cm="1">
         <f t="array" ref="B108">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -5849,7 +4859,7 @@
       </c>
       <c r="B109" cm="1">
         <f t="array" ref="B109">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -5858,7 +4868,7 @@
       </c>
       <c r="B110" cm="1">
         <f t="array" ref="B110">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -5867,7 +4877,7 @@
       </c>
       <c r="B111" cm="1">
         <f t="array" ref="B111">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -5876,7 +4886,7 @@
       </c>
       <c r="B112" cm="1">
         <f t="array" ref="B112">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -5885,7 +4895,7 @@
       </c>
       <c r="B113" cm="1">
         <f t="array" ref="B113">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -5894,7 +4904,7 @@
       </c>
       <c r="B114" cm="1">
         <f t="array" ref="B114">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -5903,7 +4913,7 @@
       </c>
       <c r="B115" cm="1">
         <f t="array" ref="B115">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -5912,7 +4922,7 @@
       </c>
       <c r="B116" cm="1">
         <f t="array" ref="B116">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -5921,7 +4931,7 @@
       </c>
       <c r="B117" cm="1">
         <f t="array" ref="B117">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -5930,7 +4940,7 @@
       </c>
       <c r="B118" cm="1">
         <f t="array" ref="B118">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -5939,7 +4949,7 @@
       </c>
       <c r="B119" cm="1">
         <f t="array" ref="B119">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -5948,7 +4958,7 @@
       </c>
       <c r="B120" cm="1">
         <f t="array" ref="B120">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -5957,7 +4967,7 @@
       </c>
       <c r="B121" cm="1">
         <f t="array" ref="B121">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -5966,7 +4976,7 @@
       </c>
       <c r="B122" cm="1">
         <f t="array" ref="B122">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -5975,7 +4985,7 @@
       </c>
       <c r="B123" cm="1">
         <f t="array" ref="B123">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -5984,7 +4994,7 @@
       </c>
       <c r="B124" cm="1">
         <f t="array" ref="B124">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -5993,7 +5003,7 @@
       </c>
       <c r="B125" cm="1">
         <f t="array" ref="B125">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -6002,7 +5012,7 @@
       </c>
       <c r="B126" cm="1">
         <f t="array" ref="B126">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -6011,7 +5021,7 @@
       </c>
       <c r="B127" cm="1">
         <f t="array" ref="B127">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -6020,7 +5030,7 @@
       </c>
       <c r="B128" cm="1">
         <f t="array" ref="B128">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -6029,7 +5039,7 @@
       </c>
       <c r="B129" cm="1">
         <f t="array" ref="B129">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -6038,7 +5048,7 @@
       </c>
       <c r="B130" cm="1">
         <f t="array" ref="B130">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -6047,7 +5057,7 @@
       </c>
       <c r="B131" cm="1">
         <f t="array" ref="B131">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -6056,7 +5066,7 @@
       </c>
       <c r="B132" cm="1">
         <f t="array" ref="B132">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -6065,7 +5075,7 @@
       </c>
       <c r="B133" cm="1">
         <f t="array" ref="B133">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -6074,7 +5084,7 @@
       </c>
       <c r="B134" cm="1">
         <f t="array" ref="B134">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -6083,7 +5093,7 @@
       </c>
       <c r="B135" cm="1">
         <f t="array" ref="B135">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -6092,7 +5102,7 @@
       </c>
       <c r="B136" cm="1">
         <f t="array" ref="B136">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -6101,7 +5111,7 @@
       </c>
       <c r="B137" cm="1">
         <f t="array" ref="B137">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -6110,7 +5120,7 @@
       </c>
       <c r="B138" cm="1">
         <f t="array" ref="B138">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -6119,7 +5129,7 @@
       </c>
       <c r="B139" cm="1">
         <f t="array" ref="B139">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -6128,7 +5138,7 @@
       </c>
       <c r="B140" cm="1">
         <f t="array" ref="B140">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -6137,7 +5147,7 @@
       </c>
       <c r="B141" cm="1">
         <f t="array" ref="B141">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -6146,7 +5156,7 @@
       </c>
       <c r="B142" cm="1">
         <f t="array" ref="B142">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -6155,7 +5165,7 @@
       </c>
       <c r="B143" cm="1">
         <f t="array" ref="B143">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -6164,7 +5174,7 @@
       </c>
       <c r="B144" cm="1">
         <f t="array" ref="B144">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -6173,7 +5183,7 @@
       </c>
       <c r="B145" cm="1">
         <f t="array" ref="B145">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -6182,7 +5192,7 @@
       </c>
       <c r="B146" cm="1">
         <f t="array" ref="B146">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -6191,7 +5201,7 @@
       </c>
       <c r="B147" cm="1">
         <f t="array" ref="B147">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -6200,7 +5210,7 @@
       </c>
       <c r="B148" cm="1">
         <f t="array" ref="B148">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -6209,7 +5219,7 @@
       </c>
       <c r="B149" cm="1">
         <f t="array" ref="B149">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -6218,7 +5228,7 @@
       </c>
       <c r="B150" cm="1">
         <f t="array" ref="B150">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -6227,7 +5237,7 @@
       </c>
       <c r="B151" cm="1">
         <f t="array" ref="B151">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -6236,7 +5246,7 @@
       </c>
       <c r="B152" cm="1">
         <f t="array" ref="B152">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -6245,7 +5255,7 @@
       </c>
       <c r="B153" cm="1">
         <f t="array" ref="B153">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -6254,7 +5264,7 @@
       </c>
       <c r="B154" cm="1">
         <f t="array" ref="B154">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -6263,7 +5273,7 @@
       </c>
       <c r="B155" cm="1">
         <f t="array" ref="B155">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -6272,7 +5282,7 @@
       </c>
       <c r="B156" cm="1">
         <f t="array" ref="B156">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -6281,7 +5291,7 @@
       </c>
       <c r="B157" cm="1">
         <f t="array" ref="B157">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -6290,7 +5300,7 @@
       </c>
       <c r="B158" cm="1">
         <f t="array" ref="B158">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -6299,7 +5309,7 @@
       </c>
       <c r="B159" cm="1">
         <f t="array" ref="B159">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -6308,7 +5318,7 @@
       </c>
       <c r="B160" cm="1">
         <f t="array" ref="B160">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -6317,7 +5327,7 @@
       </c>
       <c r="B161" cm="1">
         <f t="array" ref="B161">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -6326,7 +5336,7 @@
       </c>
       <c r="B162" cm="1">
         <f t="array" ref="B162">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -6335,7 +5345,7 @@
       </c>
       <c r="B163" cm="1">
         <f t="array" ref="B163">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -6344,7 +5354,7 @@
       </c>
       <c r="B164" cm="1">
         <f t="array" ref="B164">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -6353,7 +5363,7 @@
       </c>
       <c r="B165" cm="1">
         <f t="array" ref="B165">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -6362,7 +5372,7 @@
       </c>
       <c r="B166" cm="1">
         <f t="array" ref="B166">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -6371,7 +5381,7 @@
       </c>
       <c r="B167" cm="1">
         <f t="array" ref="B167">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -6380,7 +5390,7 @@
       </c>
       <c r="B168" cm="1">
         <f t="array" ref="B168">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -6389,7 +5399,7 @@
       </c>
       <c r="B169" cm="1">
         <f t="array" ref="B169">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -6398,7 +5408,7 @@
       </c>
       <c r="B170" cm="1">
         <f t="array" ref="B170">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -6407,7 +5417,7 @@
       </c>
       <c r="B171" cm="1">
         <f t="array" ref="B171">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -6416,7 +5426,7 @@
       </c>
       <c r="B172" cm="1">
         <f t="array" ref="B172">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -6425,7 +5435,7 @@
       </c>
       <c r="B173" cm="1">
         <f t="array" ref="B173">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -6434,7 +5444,7 @@
       </c>
       <c r="B174" cm="1">
         <f t="array" ref="B174">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -6443,7 +5453,7 @@
       </c>
       <c r="B175" cm="1">
         <f t="array" ref="B175">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -6452,7 +5462,7 @@
       </c>
       <c r="B176" cm="1">
         <f t="array" ref="B176">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -6461,7 +5471,7 @@
       </c>
       <c r="B177" cm="1">
         <f t="array" ref="B177">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -6470,7 +5480,7 @@
       </c>
       <c r="B178" cm="1">
         <f t="array" ref="B178">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -6479,7 +5489,7 @@
       </c>
       <c r="B179" cm="1">
         <f t="array" ref="B179">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -6488,7 +5498,7 @@
       </c>
       <c r="B180" cm="1">
         <f t="array" ref="B180">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -6497,7 +5507,7 @@
       </c>
       <c r="B181" cm="1">
         <f t="array" ref="B181">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -6506,7 +5516,7 @@
       </c>
       <c r="B182" cm="1">
         <f t="array" ref="B182">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -6515,7 +5525,7 @@
       </c>
       <c r="B183" cm="1">
         <f t="array" ref="B183">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -6524,7 +5534,7 @@
       </c>
       <c r="B184" cm="1">
         <f t="array" ref="B184">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -6533,7 +5543,7 @@
       </c>
       <c r="B185" cm="1">
         <f t="array" ref="B185">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -6542,7 +5552,7 @@
       </c>
       <c r="B186" cm="1">
         <f t="array" ref="B186">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -6551,7 +5561,7 @@
       </c>
       <c r="B187" cm="1">
         <f t="array" ref="B187">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -6560,7 +5570,7 @@
       </c>
       <c r="B188" cm="1">
         <f t="array" ref="B188">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -6569,7 +5579,7 @@
       </c>
       <c r="B189" cm="1">
         <f t="array" ref="B189">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -6578,7 +5588,7 @@
       </c>
       <c r="B190" cm="1">
         <f t="array" ref="B190">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -6587,7 +5597,7 @@
       </c>
       <c r="B191" cm="1">
         <f t="array" ref="B191">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -6596,7 +5606,7 @@
       </c>
       <c r="B192" cm="1">
         <f t="array" ref="B192">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -6605,7 +5615,7 @@
       </c>
       <c r="B193" cm="1">
         <f t="array" ref="B193">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -6614,7 +5624,7 @@
       </c>
       <c r="B194" cm="1">
         <f t="array" ref="B194">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -6623,7 +5633,7 @@
       </c>
       <c r="B195" cm="1">
         <f t="array" ref="B195">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -6632,7 +5642,7 @@
       </c>
       <c r="B196" cm="1">
         <f t="array" ref="B196">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -6641,7 +5651,7 @@
       </c>
       <c r="B197" cm="1">
         <f t="array" ref="B197">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -6650,7 +5660,7 @@
       </c>
       <c r="B198" cm="1">
         <f t="array" ref="B198">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -6659,7 +5669,7 @@
       </c>
       <c r="B199" cm="1">
         <f t="array" ref="B199">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -6668,7 +5678,7 @@
       </c>
       <c r="B200" cm="1">
         <f t="array" ref="B200">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -6677,7 +5687,7 @@
       </c>
       <c r="B201" cm="1">
         <f t="array" ref="B201">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -6686,7 +5696,7 @@
       </c>
       <c r="B202" cm="1">
         <f t="array" ref="B202">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -6695,7 +5705,7 @@
       </c>
       <c r="B203" cm="1">
         <f t="array" ref="B203">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -6704,7 +5714,7 @@
       </c>
       <c r="B204" cm="1">
         <f t="array" ref="B204">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -6713,7 +5723,7 @@
       </c>
       <c r="B205" cm="1">
         <f t="array" ref="B205">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -6722,7 +5732,7 @@
       </c>
       <c r="B206" cm="1">
         <f t="array" ref="B206">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -6731,7 +5741,7 @@
       </c>
       <c r="B207" cm="1">
         <f t="array" ref="B207">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -6740,7 +5750,7 @@
       </c>
       <c r="B208" cm="1">
         <f t="array" ref="B208">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -6749,7 +5759,7 @@
       </c>
       <c r="B209" cm="1">
         <f t="array" ref="B209">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -6758,7 +5768,7 @@
       </c>
       <c r="B210" cm="1">
         <f t="array" ref="B210">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -6767,7 +5777,7 @@
       </c>
       <c r="B211" cm="1">
         <f t="array" ref="B211">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -6776,7 +5786,7 @@
       </c>
       <c r="B212" cm="1">
         <f t="array" ref="B212">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -6785,7 +5795,7 @@
       </c>
       <c r="B213" cm="1">
         <f t="array" ref="B213">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -6794,7 +5804,7 @@
       </c>
       <c r="B214" cm="1">
         <f t="array" ref="B214">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -6803,7 +5813,7 @@
       </c>
       <c r="B215" cm="1">
         <f t="array" ref="B215">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -6812,7 +5822,7 @@
       </c>
       <c r="B216" cm="1">
         <f t="array" ref="B216">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -6821,7 +5831,7 @@
       </c>
       <c r="B217" cm="1">
         <f t="array" ref="B217">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -6830,7 +5840,7 @@
       </c>
       <c r="B218" cm="1">
         <f t="array" ref="B218">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -6839,7 +5849,7 @@
       </c>
       <c r="B219" cm="1">
         <f t="array" ref="B219">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -6848,7 +5858,7 @@
       </c>
       <c r="B220" cm="1">
         <f t="array" ref="B220">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -6857,7 +5867,7 @@
       </c>
       <c r="B221" cm="1">
         <f t="array" ref="B221">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -6866,7 +5876,7 @@
       </c>
       <c r="B222" cm="1">
         <f t="array" ref="B222">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -6875,7 +5885,7 @@
       </c>
       <c r="B223" cm="1">
         <f t="array" ref="B223">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -6884,7 +5894,7 @@
       </c>
       <c r="B224" cm="1">
         <f t="array" ref="B224">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -6893,7 +5903,7 @@
       </c>
       <c r="B225" cm="1">
         <f t="array" ref="B225">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -6902,7 +5912,7 @@
       </c>
       <c r="B226" cm="1">
         <f t="array" ref="B226">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -6911,7 +5921,7 @@
       </c>
       <c r="B227" cm="1">
         <f t="array" ref="B227">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -6920,7 +5930,7 @@
       </c>
       <c r="B228" cm="1">
         <f t="array" ref="B228">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -6929,7 +5939,7 @@
       </c>
       <c r="B229" cm="1">
         <f t="array" ref="B229">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -6938,7 +5948,7 @@
       </c>
       <c r="B230" cm="1">
         <f t="array" ref="B230">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -6947,7 +5957,7 @@
       </c>
       <c r="B231" cm="1">
         <f t="array" ref="B231">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -6956,7 +5966,7 @@
       </c>
       <c r="B232" cm="1">
         <f t="array" ref="B232">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -6965,7 +5975,7 @@
       </c>
       <c r="B233" cm="1">
         <f t="array" ref="B233">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -6974,7 +5984,7 @@
       </c>
       <c r="B234" cm="1">
         <f t="array" ref="B234">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -6983,7 +5993,7 @@
       </c>
       <c r="B235" cm="1">
         <f t="array" ref="B235">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -6992,7 +6002,7 @@
       </c>
       <c r="B236" cm="1">
         <f t="array" ref="B236">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -7001,7 +6011,7 @@
       </c>
       <c r="B237" cm="1">
         <f t="array" ref="B237">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -7010,7 +6020,7 @@
       </c>
       <c r="B238" cm="1">
         <f t="array" ref="B238">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -7019,7 +6029,7 @@
       </c>
       <c r="B239" cm="1">
         <f t="array" ref="B239">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -7028,7 +6038,7 @@
       </c>
       <c r="B240" cm="1">
         <f t="array" ref="B240">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -7037,7 +6047,7 @@
       </c>
       <c r="B241" cm="1">
         <f t="array" ref="B241">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -7046,7 +6056,7 @@
       </c>
       <c r="B242" cm="1">
         <f t="array" ref="B242">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -7055,7 +6065,7 @@
       </c>
       <c r="B243" cm="1">
         <f t="array" ref="B243">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -7064,7 +6074,7 @@
       </c>
       <c r="B244" cm="1">
         <f t="array" ref="B244">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -7073,7 +6083,7 @@
       </c>
       <c r="B245" cm="1">
         <f t="array" ref="B245">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -7082,7 +6092,7 @@
       </c>
       <c r="B246" cm="1">
         <f t="array" ref="B246">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -7091,7 +6101,7 @@
       </c>
       <c r="B247" cm="1">
         <f t="array" ref="B247">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -7100,7 +6110,7 @@
       </c>
       <c r="B248" cm="1">
         <f t="array" ref="B248">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -7109,7 +6119,7 @@
       </c>
       <c r="B249" cm="1">
         <f t="array" ref="B249">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -7118,7 +6128,7 @@
       </c>
       <c r="B250" cm="1">
         <f t="array" ref="B250">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -7127,7 +6137,7 @@
       </c>
       <c r="B251" cm="1">
         <f t="array" ref="B251">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -7136,7 +6146,7 @@
       </c>
       <c r="B252" cm="1">
         <f t="array" ref="B252">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -7145,7 +6155,7 @@
       </c>
       <c r="B253" cm="1">
         <f t="array" ref="B253">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -7154,7 +6164,7 @@
       </c>
       <c r="B254" cm="1">
         <f t="array" ref="B254">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -7163,7 +6173,7 @@
       </c>
       <c r="B255" cm="1">
         <f t="array" ref="B255">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -7172,7 +6182,7 @@
       </c>
       <c r="B256" cm="1">
         <f t="array" ref="B256">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -7181,7 +6191,7 @@
       </c>
       <c r="B257" cm="1">
         <f t="array" ref="B257">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -7190,7 +6200,7 @@
       </c>
       <c r="B258" cm="1">
         <f t="array" ref="B258">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -7199,7 +6209,7 @@
       </c>
       <c r="B259" cm="1">
         <f t="array" ref="B259">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -7208,7 +6218,7 @@
       </c>
       <c r="B260" cm="1">
         <f t="array" ref="B260">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -7217,7 +6227,7 @@
       </c>
       <c r="B261" cm="1">
         <f t="array" ref="B261">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -7226,7 +6236,7 @@
       </c>
       <c r="B262" cm="1">
         <f t="array" ref="B262">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -7235,7 +6245,7 @@
       </c>
       <c r="B263" cm="1">
         <f t="array" ref="B263">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -7244,7 +6254,7 @@
       </c>
       <c r="B264" cm="1">
         <f t="array" ref="B264">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -7253,7 +6263,7 @@
       </c>
       <c r="B265" cm="1">
         <f t="array" ref="B265">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -7262,7 +6272,7 @@
       </c>
       <c r="B266" cm="1">
         <f t="array" ref="B266">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -7271,7 +6281,7 @@
       </c>
       <c r="B267" cm="1">
         <f t="array" ref="B267">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -7280,7 +6290,7 @@
       </c>
       <c r="B268" cm="1">
         <f t="array" ref="B268">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -7289,7 +6299,7 @@
       </c>
       <c r="B269" cm="1">
         <f t="array" ref="B269">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -7298,7 +6308,7 @@
       </c>
       <c r="B270" cm="1">
         <f t="array" ref="B270">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -7307,7 +6317,7 @@
       </c>
       <c r="B271" cm="1">
         <f t="array" ref="B271">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -7316,7 +6326,7 @@
       </c>
       <c r="B272" cm="1">
         <f t="array" ref="B272">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -7325,7 +6335,7 @@
       </c>
       <c r="B273" cm="1">
         <f t="array" ref="B273">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -7334,7 +6344,7 @@
       </c>
       <c r="B274" cm="1">
         <f t="array" ref="B274">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -7343,7 +6353,7 @@
       </c>
       <c r="B275" cm="1">
         <f t="array" ref="B275">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -7352,7 +6362,7 @@
       </c>
       <c r="B276" cm="1">
         <f t="array" ref="B276">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -7361,7 +6371,7 @@
       </c>
       <c r="B277" cm="1">
         <f t="array" ref="B277">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -7370,7 +6380,7 @@
       </c>
       <c r="B278" cm="1">
         <f t="array" ref="B278">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -7379,7 +6389,7 @@
       </c>
       <c r="B279" cm="1">
         <f t="array" ref="B279">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -7388,7 +6398,7 @@
       </c>
       <c r="B280" cm="1">
         <f t="array" ref="B280">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -7397,7 +6407,7 @@
       </c>
       <c r="B281" cm="1">
         <f t="array" ref="B281">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -7406,7 +6416,7 @@
       </c>
       <c r="B282" cm="1">
         <f t="array" ref="B282">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -7415,7 +6425,7 @@
       </c>
       <c r="B283" cm="1">
         <f t="array" ref="B283">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -7424,7 +6434,7 @@
       </c>
       <c r="B284" cm="1">
         <f t="array" ref="B284">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -7433,7 +6443,7 @@
       </c>
       <c r="B285" cm="1">
         <f t="array" ref="B285">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -7442,7 +6452,7 @@
       </c>
       <c r="B286" cm="1">
         <f t="array" ref="B286">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -7451,7 +6461,7 @@
       </c>
       <c r="B287" cm="1">
         <f t="array" ref="B287">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -7460,7 +6470,7 @@
       </c>
       <c r="B288" cm="1">
         <f t="array" ref="B288">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -7469,7 +6479,7 @@
       </c>
       <c r="B289" cm="1">
         <f t="array" ref="B289">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -7478,7 +6488,7 @@
       </c>
       <c r="B290" cm="1">
         <f t="array" ref="B290">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -7487,7 +6497,7 @@
       </c>
       <c r="B291" cm="1">
         <f t="array" ref="B291">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -7496,7 +6506,7 @@
       </c>
       <c r="B292" cm="1">
         <f t="array" ref="B292">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -7505,7 +6515,7 @@
       </c>
       <c r="B293" cm="1">
         <f t="array" ref="B293">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -7514,7 +6524,7 @@
       </c>
       <c r="B294" cm="1">
         <f t="array" ref="B294">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
@@ -7523,7 +6533,7 @@
       </c>
       <c r="B295" cm="1">
         <f t="array" ref="B295">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -7532,7 +6542,7 @@
       </c>
       <c r="B296" cm="1">
         <f t="array" ref="B296">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -7541,7 +6551,7 @@
       </c>
       <c r="B297" cm="1">
         <f t="array" ref="B297">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -7550,7 +6560,7 @@
       </c>
       <c r="B298" cm="1">
         <f t="array" ref="B298">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -7559,7 +6569,7 @@
       </c>
       <c r="B299" cm="1">
         <f t="array" ref="B299">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -7568,7 +6578,7 @@
       </c>
       <c r="B300" cm="1">
         <f t="array" ref="B300">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -7577,7 +6587,7 @@
       </c>
       <c r="B301" cm="1">
         <f t="array" ref="B301">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
@@ -7586,7 +6596,7 @@
       </c>
       <c r="B302" cm="1">
         <f t="array" ref="B302">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -7595,7 +6605,7 @@
       </c>
       <c r="B303" cm="1">
         <f t="array" ref="B303">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -7604,7 +6614,7 @@
       </c>
       <c r="B304" cm="1">
         <f t="array" ref="B304">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -7613,7 +6623,7 @@
       </c>
       <c r="B305" cm="1">
         <f t="array" ref="B305">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -7622,7 +6632,7 @@
       </c>
       <c r="B306" cm="1">
         <f t="array" ref="B306">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
@@ -7631,7 +6641,7 @@
       </c>
       <c r="B307" cm="1">
         <f t="array" ref="B307">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
@@ -7640,7 +6650,7 @@
       </c>
       <c r="B308" cm="1">
         <f t="array" ref="B308">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
@@ -7649,7 +6659,7 @@
       </c>
       <c r="B309" cm="1">
         <f t="array" ref="B309">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
@@ -7658,7 +6668,7 @@
       </c>
       <c r="B310" cm="1">
         <f t="array" ref="B310">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -7667,7 +6677,7 @@
       </c>
       <c r="B311" cm="1">
         <f t="array" ref="B311">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -7676,7 +6686,7 @@
       </c>
       <c r="B312" cm="1">
         <f t="array" ref="B312">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -7685,7 +6695,7 @@
       </c>
       <c r="B313" cm="1">
         <f t="array" ref="B313">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -7694,7 +6704,7 @@
       </c>
       <c r="B314" cm="1">
         <f t="array" ref="B314">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -7703,7 +6713,7 @@
       </c>
       <c r="B315" cm="1">
         <f t="array" ref="B315">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -7712,7 +6722,7 @@
       </c>
       <c r="B316" cm="1">
         <f t="array" ref="B316">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -7721,7 +6731,7 @@
       </c>
       <c r="B317" cm="1">
         <f t="array" ref="B317">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -7730,7 +6740,7 @@
       </c>
       <c r="B318" cm="1">
         <f t="array" ref="B318">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -7739,7 +6749,7 @@
       </c>
       <c r="B319" cm="1">
         <f t="array" ref="B319">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -7748,7 +6758,7 @@
       </c>
       <c r="B320" cm="1">
         <f t="array" ref="B320">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -7757,7 +6767,7 @@
       </c>
       <c r="B321" cm="1">
         <f t="array" ref="B321">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
@@ -7766,7 +6776,7 @@
       </c>
       <c r="B322" cm="1">
         <f t="array" ref="B322">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
@@ -7775,7 +6785,7 @@
       </c>
       <c r="B323" cm="1">
         <f t="array" ref="B323">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
@@ -7784,7 +6794,7 @@
       </c>
       <c r="B324" cm="1">
         <f t="array" ref="B324">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
@@ -7793,7 +6803,7 @@
       </c>
       <c r="B325" cm="1">
         <f t="array" ref="B325">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
@@ -7802,7 +6812,7 @@
       </c>
       <c r="B326" cm="1">
         <f t="array" ref="B326">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
@@ -7811,7 +6821,7 @@
       </c>
       <c r="B327" cm="1">
         <f t="array" ref="B327">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -7820,7 +6830,7 @@
       </c>
       <c r="B328" cm="1">
         <f t="array" ref="B328">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -7829,7 +6839,7 @@
       </c>
       <c r="B329" cm="1">
         <f t="array" ref="B329">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
@@ -7838,7 +6848,7 @@
       </c>
       <c r="B330" cm="1">
         <f t="array" ref="B330">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -7847,7 +6857,7 @@
       </c>
       <c r="B331" cm="1">
         <f t="array" ref="B331">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -7856,7 +6866,7 @@
       </c>
       <c r="B332" cm="1">
         <f t="array" ref="B332">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
@@ -7865,7 +6875,7 @@
       </c>
       <c r="B333" cm="1">
         <f t="array" ref="B333">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
@@ -7874,7 +6884,7 @@
       </c>
       <c r="B334" cm="1">
         <f t="array" ref="B334">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
@@ -7883,7 +6893,7 @@
       </c>
       <c r="B335" cm="1">
         <f t="array" ref="B335">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -7892,7 +6902,7 @@
       </c>
       <c r="B336" cm="1">
         <f t="array" ref="B336">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
@@ -7901,7 +6911,7 @@
       </c>
       <c r="B337" cm="1">
         <f t="array" ref="B337">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
@@ -7910,7 +6920,7 @@
       </c>
       <c r="B338" cm="1">
         <f t="array" ref="B338">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
@@ -7919,7 +6929,7 @@
       </c>
       <c r="B339" cm="1">
         <f t="array" ref="B339">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -7928,7 +6938,7 @@
       </c>
       <c r="B340" cm="1">
         <f t="array" ref="B340">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
@@ -7937,7 +6947,7 @@
       </c>
       <c r="B341" cm="1">
         <f t="array" ref="B341">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
@@ -7946,7 +6956,7 @@
       </c>
       <c r="B342" cm="1">
         <f t="array" ref="B342">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
@@ -7955,7 +6965,7 @@
       </c>
       <c r="B343" cm="1">
         <f t="array" ref="B343">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
@@ -7964,7 +6974,7 @@
       </c>
       <c r="B344" cm="1">
         <f t="array" ref="B344">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
@@ -7973,7 +6983,7 @@
       </c>
       <c r="B345" cm="1">
         <f t="array" ref="B345">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
@@ -7982,7 +6992,7 @@
       </c>
       <c r="B346" cm="1">
         <f t="array" ref="B346">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
@@ -7991,7 +7001,7 @@
       </c>
       <c r="B347" cm="1">
         <f t="array" ref="B347">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
@@ -8000,7 +7010,7 @@
       </c>
       <c r="B348" cm="1">
         <f t="array" ref="B348">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
@@ -8009,7 +7019,7 @@
       </c>
       <c r="B349" cm="1">
         <f t="array" ref="B349">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
@@ -8018,7 +7028,7 @@
       </c>
       <c r="B350" cm="1">
         <f t="array" ref="B350">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
@@ -8027,7 +7037,7 @@
       </c>
       <c r="B351" cm="1">
         <f t="array" ref="B351">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
@@ -8036,7 +7046,7 @@
       </c>
       <c r="B352" cm="1">
         <f t="array" ref="B352">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
@@ -8045,7 +7055,7 @@
       </c>
       <c r="B353" cm="1">
         <f t="array" ref="B353">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
@@ -8054,7 +7064,7 @@
       </c>
       <c r="B354" cm="1">
         <f t="array" ref="B354">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
@@ -8063,7 +7073,7 @@
       </c>
       <c r="B355" cm="1">
         <f t="array" ref="B355">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
@@ -8072,7 +7082,7 @@
       </c>
       <c r="B356" cm="1">
         <f t="array" ref="B356">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
@@ -8081,7 +7091,7 @@
       </c>
       <c r="B357" cm="1">
         <f t="array" ref="B357">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
@@ -8090,7 +7100,7 @@
       </c>
       <c r="B358" cm="1">
         <f t="array" ref="B358">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
@@ -8099,7 +7109,7 @@
       </c>
       <c r="B359" cm="1">
         <f t="array" ref="B359">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -8108,7 +7118,7 @@
       </c>
       <c r="B360" cm="1">
         <f t="array" ref="B360">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
@@ -8117,7 +7127,7 @@
       </c>
       <c r="B361" cm="1">
         <f t="array" ref="B361">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
@@ -8126,7 +7136,7 @@
       </c>
       <c r="B362" cm="1">
         <f t="array" ref="B362">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
@@ -8135,7 +7145,7 @@
       </c>
       <c r="B363" cm="1">
         <f t="array" ref="B363">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
@@ -8144,7 +7154,7 @@
       </c>
       <c r="B364" cm="1">
         <f t="array" ref="B364">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
@@ -8153,7 +7163,7 @@
       </c>
       <c r="B365" cm="1">
         <f t="array" ref="B365">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
@@ -8162,7 +7172,7 @@
       </c>
       <c r="B366" cm="1">
         <f t="array" ref="B366">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
@@ -8171,7 +7181,7 @@
       </c>
       <c r="B367" cm="1">
         <f t="array" ref="B367">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
@@ -8180,7 +7190,7 @@
       </c>
       <c r="B368" cm="1">
         <f t="array" ref="B368">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
@@ -8189,7 +7199,7 @@
       </c>
       <c r="B369" cm="1">
         <f t="array" ref="B369">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
@@ -8198,7 +7208,7 @@
       </c>
       <c r="B370" cm="1">
         <f t="array" ref="B370">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
@@ -8207,7 +7217,7 @@
       </c>
       <c r="B371" cm="1">
         <f t="array" ref="B371">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
@@ -8216,7 +7226,7 @@
       </c>
       <c r="B372" cm="1">
         <f t="array" ref="B372">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
@@ -8225,7 +7235,7 @@
       </c>
       <c r="B373" cm="1">
         <f t="array" ref="B373">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
@@ -8234,7 +7244,7 @@
       </c>
       <c r="B374" cm="1">
         <f t="array" ref="B374">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
@@ -8243,7 +7253,7 @@
       </c>
       <c r="B375" cm="1">
         <f t="array" ref="B375">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
@@ -8252,7 +7262,7 @@
       </c>
       <c r="B376" cm="1">
         <f t="array" ref="B376">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
@@ -8261,7 +7271,7 @@
       </c>
       <c r="B377" cm="1">
         <f t="array" ref="B377">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
@@ -8270,7 +7280,7 @@
       </c>
       <c r="B378" cm="1">
         <f t="array" ref="B378">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
@@ -8279,7 +7289,7 @@
       </c>
       <c r="B379" cm="1">
         <f t="array" ref="B379">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
@@ -8288,7 +7298,7 @@
       </c>
       <c r="B380" cm="1">
         <f t="array" ref="B380">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
@@ -8297,7 +7307,7 @@
       </c>
       <c r="B381" cm="1">
         <f t="array" ref="B381">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
@@ -8306,7 +7316,7 @@
       </c>
       <c r="B382" cm="1">
         <f t="array" ref="B382">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -8315,7 +7325,7 @@
       </c>
       <c r="B383" cm="1">
         <f t="array" ref="B383">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
@@ -8324,7 +7334,7 @@
       </c>
       <c r="B384" cm="1">
         <f t="array" ref="B384">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
@@ -8333,7 +7343,7 @@
       </c>
       <c r="B385" cm="1">
         <f t="array" ref="B385">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
@@ -8342,7 +7352,7 @@
       </c>
       <c r="B386" cm="1">
         <f t="array" ref="B386">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
@@ -8351,7 +7361,7 @@
       </c>
       <c r="B387" cm="1">
         <f t="array" ref="B387">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
@@ -8360,7 +7370,7 @@
       </c>
       <c r="B388" cm="1">
         <f t="array" ref="B388">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
@@ -8369,7 +7379,7 @@
       </c>
       <c r="B389" cm="1">
         <f t="array" ref="B389">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
@@ -8378,7 +7388,7 @@
       </c>
       <c r="B390" cm="1">
         <f t="array" ref="B390">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
@@ -8387,7 +7397,7 @@
       </c>
       <c r="B391" cm="1">
         <f t="array" ref="B391">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
@@ -8396,7 +7406,7 @@
       </c>
       <c r="B392" cm="1">
         <f t="array" ref="B392">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
@@ -8405,7 +7415,7 @@
       </c>
       <c r="B393" cm="1">
         <f t="array" ref="B393">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
@@ -8414,7 +7424,7 @@
       </c>
       <c r="B394" cm="1">
         <f t="array" ref="B394">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
@@ -8423,7 +7433,7 @@
       </c>
       <c r="B395" cm="1">
         <f t="array" ref="B395">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
@@ -8432,7 +7442,7 @@
       </c>
       <c r="B396" cm="1">
         <f t="array" ref="B396">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
@@ -8441,7 +7451,7 @@
       </c>
       <c r="B397" cm="1">
         <f t="array" ref="B397">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
@@ -8450,7 +7460,7 @@
       </c>
       <c r="B398" cm="1">
         <f t="array" ref="B398">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
@@ -8459,7 +7469,7 @@
       </c>
       <c r="B399" cm="1">
         <f t="array" ref="B399">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
@@ -8468,7 +7478,7 @@
       </c>
       <c r="B400" cm="1">
         <f t="array" ref="B400">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
@@ -8477,7 +7487,7 @@
       </c>
       <c r="B401" cm="1">
         <f t="array" ref="B401">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
@@ -8486,7 +7496,7 @@
       </c>
       <c r="B402" cm="1">
         <f t="array" ref="B402">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
@@ -8495,7 +7505,7 @@
       </c>
       <c r="B403" cm="1">
         <f t="array" ref="B403">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
@@ -8504,7 +7514,7 @@
       </c>
       <c r="B404" cm="1">
         <f t="array" ref="B404">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
@@ -8513,7 +7523,7 @@
       </c>
       <c r="B405" cm="1">
         <f t="array" ref="B405">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
@@ -8522,7 +7532,7 @@
       </c>
       <c r="B406" cm="1">
         <f t="array" ref="B406">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
@@ -8531,7 +7541,7 @@
       </c>
       <c r="B407" cm="1">
         <f t="array" ref="B407">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
@@ -8540,7 +7550,7 @@
       </c>
       <c r="B408" cm="1">
         <f t="array" ref="B408">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
@@ -8549,7 +7559,7 @@
       </c>
       <c r="B409" cm="1">
         <f t="array" ref="B409">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
@@ -8558,7 +7568,7 @@
       </c>
       <c r="B410" cm="1">
         <f t="array" ref="B410">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
@@ -8567,7 +7577,7 @@
       </c>
       <c r="B411" cm="1">
         <f t="array" ref="B411">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
@@ -8576,7 +7586,7 @@
       </c>
       <c r="B412" cm="1">
         <f t="array" ref="B412">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
@@ -8585,7 +7595,7 @@
       </c>
       <c r="B413" cm="1">
         <f t="array" ref="B413">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
@@ -8594,7 +7604,7 @@
       </c>
       <c r="B414" cm="1">
         <f t="array" ref="B414">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
@@ -8603,7 +7613,7 @@
       </c>
       <c r="B415" cm="1">
         <f t="array" ref="B415">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
@@ -8612,7 +7622,7 @@
       </c>
       <c r="B416" cm="1">
         <f t="array" ref="B416">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
@@ -8621,7 +7631,7 @@
       </c>
       <c r="B417" cm="1">
         <f t="array" ref="B417">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
@@ -8630,7 +7640,7 @@
       </c>
       <c r="B418" cm="1">
         <f t="array" ref="B418">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
@@ -8639,7 +7649,7 @@
       </c>
       <c r="B419" cm="1">
         <f t="array" ref="B419">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
@@ -8648,7 +7658,7 @@
       </c>
       <c r="B420" cm="1">
         <f t="array" ref="B420">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
@@ -8657,7 +7667,7 @@
       </c>
       <c r="B421" cm="1">
         <f t="array" ref="B421">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
@@ -8666,7 +7676,7 @@
       </c>
       <c r="B422" cm="1">
         <f t="array" ref="B422">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
@@ -8675,7 +7685,7 @@
       </c>
       <c r="B423" cm="1">
         <f t="array" ref="B423">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
@@ -8684,7 +7694,7 @@
       </c>
       <c r="B424" cm="1">
         <f t="array" ref="B424">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -8693,7 +7703,7 @@
       </c>
       <c r="B425" cm="1">
         <f t="array" ref="B425">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
@@ -8702,7 +7712,7 @@
       </c>
       <c r="B426" cm="1">
         <f t="array" ref="B426">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
@@ -8711,7 +7721,7 @@
       </c>
       <c r="B427" cm="1">
         <f t="array" ref="B427">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
@@ -8720,7 +7730,7 @@
       </c>
       <c r="B428" cm="1">
         <f t="array" ref="B428">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
@@ -8729,7 +7739,7 @@
       </c>
       <c r="B429" cm="1">
         <f t="array" ref="B429">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
@@ -8738,7 +7748,7 @@
       </c>
       <c r="B430" cm="1">
         <f t="array" ref="B430">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
@@ -8747,7 +7757,7 @@
       </c>
       <c r="B431" cm="1">
         <f t="array" ref="B431">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
@@ -8756,7 +7766,7 @@
       </c>
       <c r="B432" cm="1">
         <f t="array" ref="B432">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
@@ -8765,7 +7775,7 @@
       </c>
       <c r="B433" cm="1">
         <f t="array" ref="B433">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
@@ -8774,7 +7784,7 @@
       </c>
       <c r="B434" cm="1">
         <f t="array" ref="B434">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
@@ -8783,7 +7793,7 @@
       </c>
       <c r="B435" cm="1">
         <f t="array" ref="B435">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
@@ -8792,7 +7802,7 @@
       </c>
       <c r="B436" cm="1">
         <f t="array" ref="B436">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
@@ -8801,7 +7811,7 @@
       </c>
       <c r="B437" cm="1">
         <f t="array" ref="B437">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
@@ -8810,7 +7820,7 @@
       </c>
       <c r="B438" cm="1">
         <f t="array" ref="B438">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
@@ -8819,7 +7829,7 @@
       </c>
       <c r="B439" cm="1">
         <f t="array" ref="B439">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
@@ -8828,7 +7838,7 @@
       </c>
       <c r="B440" cm="1">
         <f t="array" ref="B440">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
@@ -8837,7 +7847,7 @@
       </c>
       <c r="B441" cm="1">
         <f t="array" ref="B441">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
@@ -8846,7 +7856,7 @@
       </c>
       <c r="B442" cm="1">
         <f t="array" ref="B442">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
@@ -8855,7 +7865,7 @@
       </c>
       <c r="B443" cm="1">
         <f t="array" ref="B443">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
@@ -8864,7 +7874,7 @@
       </c>
       <c r="B444" cm="1">
         <f t="array" ref="B444">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
@@ -8873,7 +7883,7 @@
       </c>
       <c r="B445" cm="1">
         <f t="array" ref="B445">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
@@ -8882,7 +7892,7 @@
       </c>
       <c r="B446" cm="1">
         <f t="array" ref="B446">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
@@ -8891,7 +7901,7 @@
       </c>
       <c r="B447" cm="1">
         <f t="array" ref="B447">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
@@ -8900,7 +7910,7 @@
       </c>
       <c r="B448" cm="1">
         <f t="array" ref="B448">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
@@ -8909,7 +7919,7 @@
       </c>
       <c r="B449" cm="1">
         <f t="array" ref="B449">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
@@ -8918,7 +7928,7 @@
       </c>
       <c r="B450" cm="1">
         <f t="array" ref="B450">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
@@ -8927,7 +7937,7 @@
       </c>
       <c r="B451" cm="1">
         <f t="array" ref="B451">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
@@ -8936,7 +7946,7 @@
       </c>
       <c r="B452" cm="1">
         <f t="array" ref="B452">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
@@ -8945,7 +7955,7 @@
       </c>
       <c r="B453" cm="1">
         <f t="array" ref="B453">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
@@ -8954,7 +7964,7 @@
       </c>
       <c r="B454" cm="1">
         <f t="array" ref="B454">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
@@ -8963,7 +7973,7 @@
       </c>
       <c r="B455" cm="1">
         <f t="array" ref="B455">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
@@ -8972,7 +7982,7 @@
       </c>
       <c r="B456" cm="1">
         <f t="array" ref="B456">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
@@ -8981,7 +7991,7 @@
       </c>
       <c r="B457" cm="1">
         <f t="array" ref="B457">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
@@ -8990,7 +8000,7 @@
       </c>
       <c r="B458" cm="1">
         <f t="array" ref="B458">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
@@ -8999,7 +8009,7 @@
       </c>
       <c r="B459" cm="1">
         <f t="array" ref="B459">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
@@ -9008,7 +8018,7 @@
       </c>
       <c r="B460" cm="1">
         <f t="array" ref="B460">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
@@ -9017,7 +8027,7 @@
       </c>
       <c r="B461" cm="1">
         <f t="array" ref="B461">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
@@ -9026,7 +8036,7 @@
       </c>
       <c r="B462" cm="1">
         <f t="array" ref="B462">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
@@ -9035,7 +8045,7 @@
       </c>
       <c r="B463" cm="1">
         <f t="array" ref="B463">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
@@ -9044,7 +8054,7 @@
       </c>
       <c r="B464" cm="1">
         <f t="array" ref="B464">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
@@ -9053,7 +8063,7 @@
       </c>
       <c r="B465" cm="1">
         <f t="array" ref="B465">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
@@ -9062,7 +8072,7 @@
       </c>
       <c r="B466" cm="1">
         <f t="array" ref="B466">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
@@ -9071,7 +8081,7 @@
       </c>
       <c r="B467" cm="1">
         <f t="array" ref="B467">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
@@ -9080,7 +8090,7 @@
       </c>
       <c r="B468" cm="1">
         <f t="array" ref="B468">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
@@ -9089,7 +8099,7 @@
       </c>
       <c r="B469" cm="1">
         <f t="array" ref="B469">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
@@ -9098,7 +8108,7 @@
       </c>
       <c r="B470" cm="1">
         <f t="array" ref="B470">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
@@ -9107,7 +8117,7 @@
       </c>
       <c r="B471" cm="1">
         <f t="array" ref="B471">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
@@ -9116,7 +8126,7 @@
       </c>
       <c r="B472" cm="1">
         <f t="array" ref="B472">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
@@ -9125,7 +8135,7 @@
       </c>
       <c r="B473" cm="1">
         <f t="array" ref="B473">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
@@ -9134,7 +8144,7 @@
       </c>
       <c r="B474" cm="1">
         <f t="array" ref="B474">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
@@ -9143,7 +8153,7 @@
       </c>
       <c r="B475" cm="1">
         <f t="array" ref="B475">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
@@ -9152,7 +8162,7 @@
       </c>
       <c r="B476" cm="1">
         <f t="array" ref="B476">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
@@ -9161,7 +8171,7 @@
       </c>
       <c r="B477" cm="1">
         <f t="array" ref="B477">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
@@ -9170,7 +8180,7 @@
       </c>
       <c r="B478" cm="1">
         <f t="array" ref="B478">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
@@ -9179,7 +8189,7 @@
       </c>
       <c r="B479" cm="1">
         <f t="array" ref="B479">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
@@ -9188,7 +8198,7 @@
       </c>
       <c r="B480" cm="1">
         <f t="array" ref="B480">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
@@ -9197,7 +8207,7 @@
       </c>
       <c r="B481" cm="1">
         <f t="array" ref="B481">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
@@ -9206,7 +8216,7 @@
       </c>
       <c r="B482" cm="1">
         <f t="array" ref="B482">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
@@ -9215,7 +8225,7 @@
       </c>
       <c r="B483" cm="1">
         <f t="array" ref="B483">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
@@ -9224,7 +8234,7 @@
       </c>
       <c r="B484" cm="1">
         <f t="array" ref="B484">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
@@ -9233,7 +8243,7 @@
       </c>
       <c r="B485" cm="1">
         <f t="array" ref="B485">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
@@ -9242,7 +8252,7 @@
       </c>
       <c r="B486" cm="1">
         <f t="array" ref="B486">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
@@ -9251,7 +8261,7 @@
       </c>
       <c r="B487" cm="1">
         <f t="array" ref="B487">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
@@ -9260,7 +8270,7 @@
       </c>
       <c r="B488" cm="1">
         <f t="array" ref="B488">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
@@ -9269,7 +8279,7 @@
       </c>
       <c r="B489" cm="1">
         <f t="array" ref="B489">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
@@ -9278,7 +8288,7 @@
       </c>
       <c r="B490" cm="1">
         <f t="array" ref="B490">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
@@ -9287,7 +8297,7 @@
       </c>
       <c r="B491" cm="1">
         <f t="array" ref="B491">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
@@ -9296,7 +8306,7 @@
       </c>
       <c r="B492" cm="1">
         <f t="array" ref="B492">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
@@ -9305,7 +8315,7 @@
       </c>
       <c r="B493" cm="1">
         <f t="array" ref="B493">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
@@ -9314,7 +8324,7 @@
       </c>
       <c r="B494" cm="1">
         <f t="array" ref="B494">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
@@ -9323,7 +8333,7 @@
       </c>
       <c r="B495" cm="1">
         <f t="array" ref="B495">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
@@ -9332,7 +8342,7 @@
       </c>
       <c r="B496" cm="1">
         <f t="array" ref="B496">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
@@ -9341,7 +8351,7 @@
       </c>
       <c r="B497" cm="1">
         <f t="array" ref="B497">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
@@ -9350,7 +8360,7 @@
       </c>
       <c r="B498" cm="1">
         <f t="array" ref="B498">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
@@ -9359,7 +8369,7 @@
       </c>
       <c r="B499" cm="1">
         <f t="array" ref="B499">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
@@ -9368,7 +8378,7 @@
       </c>
       <c r="B500" cm="1">
         <f t="array" ref="B500">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
@@ -9377,7 +8387,7 @@
       </c>
       <c r="B501" cm="1">
         <f t="array" ref="B501">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
@@ -9386,7 +8396,7 @@
       </c>
       <c r="B502" cm="1">
         <f t="array" ref="B502">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
@@ -9395,7 +8405,7 @@
       </c>
       <c r="B503" cm="1">
         <f t="array" ref="B503">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
@@ -9404,7 +8414,7 @@
       </c>
       <c r="B504" cm="1">
         <f t="array" ref="B504">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
@@ -9413,7 +8423,7 @@
       </c>
       <c r="B505" cm="1">
         <f t="array" ref="B505">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
@@ -9422,7 +8432,7 @@
       </c>
       <c r="B506" cm="1">
         <f t="array" ref="B506">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
@@ -9431,7 +8441,7 @@
       </c>
       <c r="B507" cm="1">
         <f t="array" ref="B507">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
@@ -9440,7 +8450,7 @@
       </c>
       <c r="B508" cm="1">
         <f t="array" ref="B508">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
@@ -9449,7 +8459,7 @@
       </c>
       <c r="B509" cm="1">
         <f t="array" ref="B509">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
@@ -9458,7 +8468,7 @@
       </c>
       <c r="B510" cm="1">
         <f t="array" ref="B510">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
@@ -9467,7 +8477,7 @@
       </c>
       <c r="B511" cm="1">
         <f t="array" ref="B511">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
@@ -9476,7 +8486,7 @@
       </c>
       <c r="B512" cm="1">
         <f t="array" ref="B512">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
@@ -9485,7 +8495,7 @@
       </c>
       <c r="B513" cm="1">
         <f t="array" ref="B513">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
@@ -9494,7 +8504,7 @@
       </c>
       <c r="B514" cm="1">
         <f t="array" ref="B514">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
@@ -9503,7 +8513,7 @@
       </c>
       <c r="B515" cm="1">
         <f t="array" ref="B515">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
@@ -9512,7 +8522,7 @@
       </c>
       <c r="B516" cm="1">
         <f t="array" ref="B516">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
@@ -9521,7 +8531,7 @@
       </c>
       <c r="B517" cm="1">
         <f t="array" ref="B517">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
@@ -9530,7 +8540,7 @@
       </c>
       <c r="B518" cm="1">
         <f t="array" ref="B518">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
@@ -9539,7 +8549,7 @@
       </c>
       <c r="B519" cm="1">
         <f t="array" ref="B519">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
@@ -9548,7 +8558,7 @@
       </c>
       <c r="B520" cm="1">
         <f t="array" ref="B520">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
@@ -9557,7 +8567,7 @@
       </c>
       <c r="B521" cm="1">
         <f t="array" ref="B521">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
@@ -9566,7 +8576,7 @@
       </c>
       <c r="B522" cm="1">
         <f t="array" ref="B522">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
@@ -9575,7 +8585,7 @@
       </c>
       <c r="B523" cm="1">
         <f t="array" ref="B523">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
@@ -9584,7 +8594,7 @@
       </c>
       <c r="B524" cm="1">
         <f t="array" ref="B524">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
@@ -9593,7 +8603,7 @@
       </c>
       <c r="B525" cm="1">
         <f t="array" ref="B525">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
@@ -9602,7 +8612,7 @@
       </c>
       <c r="B526" cm="1">
         <f t="array" ref="B526">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
@@ -9611,7 +8621,7 @@
       </c>
       <c r="B527" cm="1">
         <f t="array" ref="B527">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
@@ -9620,7 +8630,7 @@
       </c>
       <c r="B528" cm="1">
         <f t="array" ref="B528">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
@@ -9629,7 +8639,7 @@
       </c>
       <c r="B529" cm="1">
         <f t="array" ref="B529">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
@@ -9638,7 +8648,7 @@
       </c>
       <c r="B530" cm="1">
         <f t="array" ref="B530">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
@@ -9647,7 +8657,7 @@
       </c>
       <c r="B531" cm="1">
         <f t="array" ref="B531">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
@@ -9656,7 +8666,7 @@
       </c>
       <c r="B532" cm="1">
         <f t="array" ref="B532">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
@@ -9665,7 +8675,7 @@
       </c>
       <c r="B533" cm="1">
         <f t="array" ref="B533">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
@@ -9674,7 +8684,7 @@
       </c>
       <c r="B534" cm="1">
         <f t="array" ref="B534">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
@@ -9683,7 +8693,7 @@
       </c>
       <c r="B535" cm="1">
         <f t="array" ref="B535">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
@@ -9692,7 +8702,7 @@
       </c>
       <c r="B536" cm="1">
         <f t="array" ref="B536">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
@@ -9701,7 +8711,7 @@
       </c>
       <c r="B537" cm="1">
         <f t="array" ref="B537">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
@@ -9710,7 +8720,7 @@
       </c>
       <c r="B538" cm="1">
         <f t="array" ref="B538">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
@@ -9719,7 +8729,7 @@
       </c>
       <c r="B539" cm="1">
         <f t="array" ref="B539">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
@@ -9728,7 +8738,7 @@
       </c>
       <c r="B540" cm="1">
         <f t="array" ref="B540">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
@@ -9737,7 +8747,7 @@
       </c>
       <c r="B541" cm="1">
         <f t="array" ref="B541">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
@@ -9746,7 +8756,7 @@
       </c>
       <c r="B542" cm="1">
         <f t="array" ref="B542">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
@@ -9755,7 +8765,7 @@
       </c>
       <c r="B543" cm="1">
         <f t="array" ref="B543">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
@@ -9764,7 +8774,7 @@
       </c>
       <c r="B544" cm="1">
         <f t="array" ref="B544">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
@@ -9773,7 +8783,7 @@
       </c>
       <c r="B545" cm="1">
         <f t="array" ref="B545">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
@@ -9782,7 +8792,7 @@
       </c>
       <c r="B546" cm="1">
         <f t="array" ref="B546">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
@@ -9791,7 +8801,7 @@
       </c>
       <c r="B547" cm="1">
         <f t="array" ref="B547">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
@@ -9800,7 +8810,7 @@
       </c>
       <c r="B548" cm="1">
         <f t="array" ref="B548">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
@@ -9809,7 +8819,7 @@
       </c>
       <c r="B549" cm="1">
         <f t="array" ref="B549">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
@@ -9818,7 +8828,7 @@
       </c>
       <c r="B550" cm="1">
         <f t="array" ref="B550">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
@@ -9827,7 +8837,7 @@
       </c>
       <c r="B551" cm="1">
         <f t="array" ref="B551">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
@@ -9836,7 +8846,7 @@
       </c>
       <c r="B552" cm="1">
         <f t="array" ref="B552">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
@@ -9845,7 +8855,7 @@
       </c>
       <c r="B553" cm="1">
         <f t="array" ref="B553">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
@@ -9854,7 +8864,7 @@
       </c>
       <c r="B554" cm="1">
         <f t="array" ref="B554">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
@@ -9863,7 +8873,7 @@
       </c>
       <c r="B555" cm="1">
         <f t="array" ref="B555">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
@@ -9872,7 +8882,7 @@
       </c>
       <c r="B556" cm="1">
         <f t="array" ref="B556">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
@@ -9881,7 +8891,7 @@
       </c>
       <c r="B557" cm="1">
         <f t="array" ref="B557">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
@@ -9890,7 +8900,7 @@
       </c>
       <c r="B558" cm="1">
         <f t="array" ref="B558">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
@@ -9899,7 +8909,7 @@
       </c>
       <c r="B559" cm="1">
         <f t="array" ref="B559">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
@@ -9908,7 +8918,7 @@
       </c>
       <c r="B560" cm="1">
         <f t="array" ref="B560">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
@@ -9917,7 +8927,7 @@
       </c>
       <c r="B561" cm="1">
         <f t="array" ref="B561">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
@@ -9926,7 +8936,7 @@
       </c>
       <c r="B562" cm="1">
         <f t="array" ref="B562">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
@@ -9935,7 +8945,7 @@
       </c>
       <c r="B563" cm="1">
         <f t="array" ref="B563">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
@@ -9944,7 +8954,7 @@
       </c>
       <c r="B564" cm="1">
         <f t="array" ref="B564">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
@@ -9953,7 +8963,7 @@
       </c>
       <c r="B565" cm="1">
         <f t="array" ref="B565">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
@@ -9962,7 +8972,7 @@
       </c>
       <c r="B566" cm="1">
         <f t="array" ref="B566">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
@@ -9971,7 +8981,7 @@
       </c>
       <c r="B567" cm="1">
         <f t="array" ref="B567">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
@@ -9980,7 +8990,7 @@
       </c>
       <c r="B568" cm="1">
         <f t="array" ref="B568">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
@@ -9989,7 +8999,7 @@
       </c>
       <c r="B569" cm="1">
         <f t="array" ref="B569">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
@@ -9998,7 +9008,7 @@
       </c>
       <c r="B570" cm="1">
         <f t="array" ref="B570">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
@@ -10007,7 +9017,7 @@
       </c>
       <c r="B571" cm="1">
         <f t="array" ref="B571">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
@@ -10016,7 +9026,7 @@
       </c>
       <c r="B572" cm="1">
         <f t="array" ref="B572">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
@@ -10025,7 +9035,7 @@
       </c>
       <c r="B573" cm="1">
         <f t="array" ref="B573">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
@@ -10034,7 +9044,7 @@
       </c>
       <c r="B574" cm="1">
         <f t="array" ref="B574">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
@@ -10043,7 +9053,7 @@
       </c>
       <c r="B575" cm="1">
         <f t="array" ref="B575">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
@@ -10052,7 +9062,7 @@
       </c>
       <c r="B576" cm="1">
         <f t="array" ref="B576">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
@@ -10061,7 +9071,7 @@
       </c>
       <c r="B577" cm="1">
         <f t="array" ref="B577">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
@@ -10070,7 +9080,7 @@
       </c>
       <c r="B578" cm="1">
         <f t="array" ref="B578">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
@@ -10079,7 +9089,7 @@
       </c>
       <c r="B579" cm="1">
         <f t="array" ref="B579">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
@@ -10088,7 +9098,7 @@
       </c>
       <c r="B580" cm="1">
         <f t="array" ref="B580">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
@@ -10097,7 +9107,7 @@
       </c>
       <c r="B581" cm="1">
         <f t="array" ref="B581">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
@@ -10106,7 +9116,7 @@
       </c>
       <c r="B582" cm="1">
         <f t="array" ref="B582">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
@@ -10115,7 +9125,7 @@
       </c>
       <c r="B583" cm="1">
         <f t="array" ref="B583">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
@@ -10124,7 +9134,7 @@
       </c>
       <c r="B584" cm="1">
         <f t="array" ref="B584">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
@@ -10133,7 +9143,7 @@
       </c>
       <c r="B585" cm="1">
         <f t="array" ref="B585">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
@@ -10142,7 +9152,7 @@
       </c>
       <c r="B586" cm="1">
         <f t="array" ref="B586">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
@@ -10151,7 +9161,7 @@
       </c>
       <c r="B587" cm="1">
         <f t="array" ref="B587">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
@@ -10160,7 +9170,7 @@
       </c>
       <c r="B588" cm="1">
         <f t="array" ref="B588">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
@@ -10169,7 +9179,7 @@
       </c>
       <c r="B589" cm="1">
         <f t="array" ref="B589">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
@@ -10178,7 +9188,7 @@
       </c>
       <c r="B590" cm="1">
         <f t="array" ref="B590">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
@@ -10187,7 +9197,7 @@
       </c>
       <c r="B591" cm="1">
         <f t="array" ref="B591">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
@@ -10196,7 +9206,7 @@
       </c>
       <c r="B592" cm="1">
         <f t="array" ref="B592">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
@@ -10205,7 +9215,7 @@
       </c>
       <c r="B593" cm="1">
         <f t="array" ref="B593">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
@@ -10214,7 +9224,7 @@
       </c>
       <c r="B594" cm="1">
         <f t="array" ref="B594">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
@@ -10223,7 +9233,7 @@
       </c>
       <c r="B595" cm="1">
         <f t="array" ref="B595">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
@@ -10232,7 +9242,7 @@
       </c>
       <c r="B596" cm="1">
         <f t="array" ref="B596">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
@@ -10241,7 +9251,7 @@
       </c>
       <c r="B597" cm="1">
         <f t="array" ref="B597">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
@@ -10250,7 +9260,7 @@
       </c>
       <c r="B598" cm="1">
         <f t="array" ref="B598">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
@@ -10259,7 +9269,7 @@
       </c>
       <c r="B599" cm="1">
         <f t="array" ref="B599">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
@@ -10268,7 +9278,7 @@
       </c>
       <c r="B600" cm="1">
         <f t="array" ref="B600">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
@@ -10277,7 +9287,7 @@
       </c>
       <c r="B601" cm="1">
         <f t="array" ref="B601">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
@@ -10286,7 +9296,7 @@
       </c>
       <c r="B602" cm="1">
         <f t="array" ref="B602">SUMPRODUCT(Tableau1[Résolu]*(Tableau1[Temps]&lt;=Tableau2[[#This Row],[Temps]]))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -10295,163 +9305,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D185E7C-0804-46F0-ADFE-E2BCC31C90C5}">
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.01</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <f>LOG(F2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f>$B$2^((3-A2)/(3-1))</f>
-        <v>0.01</v>
-      </c>
-      <c r="F3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G12" si="0">LOG(F3)</f>
-        <v>4.1392685158225077E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ref="B4:B5" si="1">$B$2^((3-A3)/(3-1))</f>
-        <v>0.1</v>
-      </c>
-      <c r="F4">
-        <v>1.2</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>7.9181246047624818E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1.3</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0.11394335230683679</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F6">
-        <v>1.4</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0.14612803567823801</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F7">
-        <v>1.5</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0.17609125905568124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F8">
-        <v>1.6</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0.20411998265592479</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F9">
-        <v>1.7</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0.23044892137827391</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F10">
-        <v>1.8</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>0.25527250510330607</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F11">
-        <v>1.9</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0.27875360095282892</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>0.3010299956639812</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>